--- a/data/KODK.xlsx
+++ b/data/KODK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2052"/>
+  <dimension ref="A1:G1884"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37479,7 +37479,7 @@
         <v>3.47</v>
       </c>
       <c r="G1610" t="n">
-        <v>85938</v>
+        <v>85900</v>
       </c>
     </row>
     <row r="1611">
@@ -37502,7 +37502,7 @@
         <v>3.53</v>
       </c>
       <c r="G1611" t="n">
-        <v>195136</v>
+        <v>195100</v>
       </c>
     </row>
     <row r="1612">
@@ -37525,7 +37525,7 @@
         <v>3.6</v>
       </c>
       <c r="G1612" t="n">
-        <v>216092</v>
+        <v>216100</v>
       </c>
     </row>
     <row r="1613">
@@ -37548,7 +37548,7 @@
         <v>3.57</v>
       </c>
       <c r="G1613" t="n">
-        <v>165693</v>
+        <v>165700</v>
       </c>
     </row>
     <row r="1614">
@@ -37571,7 +37571,7 @@
         <v>3.6</v>
       </c>
       <c r="G1614" t="n">
-        <v>99283</v>
+        <v>99300</v>
       </c>
     </row>
     <row r="1615">
@@ -37585,7 +37585,7 @@
         <v>3.6</v>
       </c>
       <c r="D1615" t="n">
-        <v>3.426</v>
+        <v>3.43</v>
       </c>
       <c r="E1615" t="n">
         <v>3.58</v>
@@ -37594,7 +37594,7 @@
         <v>3.58</v>
       </c>
       <c r="G1615" t="n">
-        <v>212513</v>
+        <v>212500</v>
       </c>
     </row>
     <row r="1616">
@@ -37605,7 +37605,7 @@
         <v>3.54</v>
       </c>
       <c r="C1616" t="n">
-        <v>3.555</v>
+        <v>3.56</v>
       </c>
       <c r="D1616" t="n">
         <v>3.43</v>
@@ -37617,7 +37617,7 @@
         <v>3.49</v>
       </c>
       <c r="G1616" t="n">
-        <v>122683</v>
+        <v>122700</v>
       </c>
     </row>
     <row r="1617">
@@ -37640,7 +37640,7 @@
         <v>3.23</v>
       </c>
       <c r="G1617" t="n">
-        <v>328329</v>
+        <v>328300</v>
       </c>
     </row>
     <row r="1618">
@@ -37651,7 +37651,7 @@
         <v>3.23</v>
       </c>
       <c r="C1618" t="n">
-        <v>3.2802</v>
+        <v>3.28</v>
       </c>
       <c r="D1618" t="n">
         <v>3.2</v>
@@ -37663,7 +37663,7 @@
         <v>3.22</v>
       </c>
       <c r="G1618" t="n">
-        <v>275772</v>
+        <v>275800</v>
       </c>
     </row>
     <row r="1619">
@@ -37686,7 +37686,7 @@
         <v>3.13</v>
       </c>
       <c r="G1619" t="n">
-        <v>180664</v>
+        <v>180700</v>
       </c>
     </row>
     <row r="1620">
@@ -37709,7 +37709,7 @@
         <v>3.04</v>
       </c>
       <c r="G1620" t="n">
-        <v>204522</v>
+        <v>204500</v>
       </c>
     </row>
     <row r="1621">
@@ -37717,13 +37717,13 @@
         <v>43889</v>
       </c>
       <c r="B1621" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="C1621" t="n">
-        <v>3.65</v>
+        <v>3.13</v>
       </c>
       <c r="D1621" t="n">
-        <v>2.8703</v>
+        <v>2.87</v>
       </c>
       <c r="E1621" t="n">
         <v>3.11</v>
@@ -37732,7 +37732,7 @@
         <v>3.11</v>
       </c>
       <c r="G1621" t="n">
-        <v>3364117</v>
+        <v>251300</v>
       </c>
     </row>
     <row r="1622">
@@ -37755,7 +37755,7 @@
         <v>3.15</v>
       </c>
       <c r="G1622" t="n">
-        <v>165098</v>
+        <v>165200</v>
       </c>
     </row>
     <row r="1623">
@@ -37769,7 +37769,7 @@
         <v>3.14</v>
       </c>
       <c r="D1623" t="n">
-        <v>2.865</v>
+        <v>2.87</v>
       </c>
       <c r="E1623" t="n">
         <v>2.94</v>
@@ -37778,7 +37778,7 @@
         <v>2.94</v>
       </c>
       <c r="G1623" t="n">
-        <v>146870</v>
+        <v>146900</v>
       </c>
     </row>
     <row r="1624">
@@ -37801,7 +37801,7 @@
         <v>2.95</v>
       </c>
       <c r="G1624" t="n">
-        <v>75914</v>
+        <v>75900</v>
       </c>
     </row>
     <row r="1625">
@@ -37812,7 +37812,7 @@
         <v>2.89</v>
       </c>
       <c r="C1625" t="n">
-        <v>2.9297</v>
+        <v>2.93</v>
       </c>
       <c r="D1625" t="n">
         <v>2.53</v>
@@ -37824,7 +37824,7 @@
         <v>2.6</v>
       </c>
       <c r="G1625" t="n">
-        <v>251888</v>
+        <v>251900</v>
       </c>
     </row>
     <row r="1626">
@@ -37835,7 +37835,7 @@
         <v>2.6</v>
       </c>
       <c r="C1626" t="n">
-        <v>2.6948</v>
+        <v>2.69</v>
       </c>
       <c r="D1626" t="n">
         <v>2.6</v>
@@ -37847,7 +37847,7 @@
         <v>2.61</v>
       </c>
       <c r="G1626" t="n">
-        <v>203276</v>
+        <v>203300</v>
       </c>
     </row>
     <row r="1627">
@@ -37861,7 +37861,7 @@
         <v>2.44</v>
       </c>
       <c r="D1627" t="n">
-        <v>2.181</v>
+        <v>2.18</v>
       </c>
       <c r="E1627" t="n">
         <v>2.27</v>
@@ -37870,7 +37870,7 @@
         <v>2.27</v>
       </c>
       <c r="G1627" t="n">
-        <v>348746</v>
+        <v>348700</v>
       </c>
     </row>
     <row r="1628">
@@ -37893,7 +37893,7 @@
         <v>2.46</v>
       </c>
       <c r="G1628" t="n">
-        <v>305408</v>
+        <v>307400</v>
       </c>
     </row>
     <row r="1629">
@@ -37916,7 +37916,7 @@
         <v>2.33</v>
       </c>
       <c r="G1629" t="n">
-        <v>226315</v>
+        <v>226300</v>
       </c>
     </row>
     <row r="1630">
@@ -37939,7 +37939,7 @@
         <v>2.04</v>
       </c>
       <c r="G1630" t="n">
-        <v>270855</v>
+        <v>270900</v>
       </c>
     </row>
     <row r="1631">
@@ -37962,7 +37962,7 @@
         <v>2.01</v>
       </c>
       <c r="G1631" t="n">
-        <v>293830</v>
+        <v>293800</v>
       </c>
     </row>
     <row r="1632">
@@ -37985,7 +37985,7 @@
         <v>1.89</v>
       </c>
       <c r="G1632" t="n">
-        <v>416118</v>
+        <v>416100</v>
       </c>
     </row>
     <row r="1633">
@@ -38008,7 +38008,7 @@
         <v>1.78</v>
       </c>
       <c r="G1633" t="n">
-        <v>377681</v>
+        <v>378200</v>
       </c>
     </row>
     <row r="1634">
@@ -38031,7 +38031,7 @@
         <v>1.59</v>
       </c>
       <c r="G1634" t="n">
-        <v>552847</v>
+        <v>552800</v>
       </c>
     </row>
     <row r="1635">
@@ -38054,7 +38054,7 @@
         <v>1.67</v>
       </c>
       <c r="G1635" t="n">
-        <v>473308</v>
+        <v>473300</v>
       </c>
     </row>
     <row r="1636">
@@ -38077,7 +38077,7 @@
         <v>1.59</v>
       </c>
       <c r="G1636" t="n">
-        <v>583067</v>
+        <v>583100</v>
       </c>
     </row>
     <row r="1637">
@@ -38100,7 +38100,7 @@
         <v>1.55</v>
       </c>
       <c r="G1637" t="n">
-        <v>375656</v>
+        <v>375700</v>
       </c>
     </row>
     <row r="1638">
@@ -38123,7 +38123,7 @@
         <v>1.7</v>
       </c>
       <c r="G1638" t="n">
-        <v>388535</v>
+        <v>388500</v>
       </c>
     </row>
     <row r="1639">
@@ -38146,7 +38146,7 @@
         <v>1.83</v>
       </c>
       <c r="G1639" t="n">
-        <v>582056</v>
+        <v>582100</v>
       </c>
     </row>
     <row r="1640">
@@ -38169,7 +38169,7 @@
         <v>1.82</v>
       </c>
       <c r="G1640" t="n">
-        <v>478261</v>
+        <v>478300</v>
       </c>
     </row>
     <row r="1641">
@@ -38183,7 +38183,7 @@
         <v>1.81</v>
       </c>
       <c r="D1641" t="n">
-        <v>1.6701</v>
+        <v>1.67</v>
       </c>
       <c r="E1641" t="n">
         <v>1.7</v>
@@ -38192,7 +38192,7 @@
         <v>1.7</v>
       </c>
       <c r="G1641" t="n">
-        <v>207266</v>
+        <v>207300</v>
       </c>
     </row>
     <row r="1642">
@@ -38206,7 +38206,7 @@
         <v>1.8</v>
       </c>
       <c r="D1642" t="n">
-        <v>1.7278</v>
+        <v>1.73</v>
       </c>
       <c r="E1642" t="n">
         <v>1.73</v>
@@ -38215,7 +38215,7 @@
         <v>1.73</v>
       </c>
       <c r="G1642" t="n">
-        <v>222679</v>
+        <v>222700</v>
       </c>
     </row>
     <row r="1643">
@@ -38223,13 +38223,13 @@
         <v>43921</v>
       </c>
       <c r="B1643" t="n">
-        <v>3.11</v>
+        <v>1.85</v>
       </c>
       <c r="C1643" t="n">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="D1643" t="n">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="E1643" t="n">
         <v>1.73</v>
@@ -38238,7 +38238,7 @@
         <v>1.73</v>
       </c>
       <c r="G1643" t="n">
-        <v>7158028</v>
+        <v>212400</v>
       </c>
     </row>
     <row r="1644">
@@ -38261,7 +38261,7 @@
         <v>1.65</v>
       </c>
       <c r="G1644" t="n">
-        <v>145086</v>
+        <v>145100</v>
       </c>
     </row>
     <row r="1645">
@@ -38284,7 +38284,7 @@
         <v>1.67</v>
       </c>
       <c r="G1645" t="n">
-        <v>315818</v>
+        <v>315800</v>
       </c>
     </row>
     <row r="1646">
@@ -38307,7 +38307,7 @@
         <v>1.6</v>
       </c>
       <c r="G1646" t="n">
-        <v>171397</v>
+        <v>171400</v>
       </c>
     </row>
     <row r="1647">
@@ -38318,10 +38318,10 @@
         <v>1.67</v>
       </c>
       <c r="C1647" t="n">
-        <v>1.775</v>
+        <v>1.78</v>
       </c>
       <c r="D1647" t="n">
-        <v>1.6501</v>
+        <v>1.65</v>
       </c>
       <c r="E1647" t="n">
         <v>1.75</v>
@@ -38330,7 +38330,7 @@
         <v>1.75</v>
       </c>
       <c r="G1647" t="n">
-        <v>310444</v>
+        <v>310400</v>
       </c>
     </row>
     <row r="1648">
@@ -38341,10 +38341,10 @@
         <v>1.83</v>
       </c>
       <c r="C1648" t="n">
-        <v>1.8957</v>
+        <v>1.9</v>
       </c>
       <c r="D1648" t="n">
-        <v>1.7449</v>
+        <v>1.74</v>
       </c>
       <c r="E1648" t="n">
         <v>1.81</v>
@@ -38353,7 +38353,7 @@
         <v>1.81</v>
       </c>
       <c r="G1648" t="n">
-        <v>268744</v>
+        <v>268700</v>
       </c>
     </row>
     <row r="1649">
@@ -38376,7 +38376,7 @@
         <v>1.99</v>
       </c>
       <c r="G1649" t="n">
-        <v>234032</v>
+        <v>234000</v>
       </c>
     </row>
     <row r="1650">
@@ -38387,7 +38387,7 @@
         <v>2.03</v>
       </c>
       <c r="C1650" t="n">
-        <v>2.1799</v>
+        <v>2.18</v>
       </c>
       <c r="D1650" t="n">
         <v>2.03</v>
@@ -38399,7 +38399,7 @@
         <v>2.16</v>
       </c>
       <c r="G1650" t="n">
-        <v>265457</v>
+        <v>265500</v>
       </c>
     </row>
     <row r="1651">
@@ -38422,7 +38422,7 @@
         <v>2.17</v>
       </c>
       <c r="G1651" t="n">
-        <v>99438</v>
+        <v>99400</v>
       </c>
     </row>
     <row r="1652">
@@ -38445,7 +38445,7 @@
         <v>2.22</v>
       </c>
       <c r="G1652" t="n">
-        <v>208450</v>
+        <v>208500</v>
       </c>
     </row>
     <row r="1653">
@@ -38459,7 +38459,7 @@
         <v>2.23</v>
       </c>
       <c r="D1653" t="n">
-        <v>2.0058</v>
+        <v>2.01</v>
       </c>
       <c r="E1653" t="n">
         <v>2.12</v>
@@ -38468,7 +38468,7 @@
         <v>2.12</v>
       </c>
       <c r="G1653" t="n">
-        <v>127980</v>
+        <v>128000</v>
       </c>
     </row>
     <row r="1654">
@@ -38491,7 +38491,7 @@
         <v>2.12</v>
       </c>
       <c r="G1654" t="n">
-        <v>73365</v>
+        <v>73400</v>
       </c>
     </row>
     <row r="1655">
@@ -38505,7 +38505,7 @@
         <v>2.21</v>
       </c>
       <c r="D1655" t="n">
-        <v>2.0865</v>
+        <v>2.09</v>
       </c>
       <c r="E1655" t="n">
         <v>2.14</v>
@@ -38514,7 +38514,7 @@
         <v>2.14</v>
       </c>
       <c r="G1655" t="n">
-        <v>82945</v>
+        <v>82900</v>
       </c>
     </row>
     <row r="1656">
@@ -38528,7 +38528,7 @@
         <v>2.15</v>
       </c>
       <c r="D1656" t="n">
-        <v>2.0399</v>
+        <v>2.04</v>
       </c>
       <c r="E1656" t="n">
         <v>2.05</v>
@@ -38537,7 +38537,7 @@
         <v>2.05</v>
       </c>
       <c r="G1656" t="n">
-        <v>135660</v>
+        <v>135700</v>
       </c>
     </row>
     <row r="1657">
@@ -38560,7 +38560,7 @@
         <v>1.96</v>
       </c>
       <c r="G1657" t="n">
-        <v>184105</v>
+        <v>184100</v>
       </c>
     </row>
     <row r="1658">
@@ -38583,7 +38583,7 @@
         <v>1.97</v>
       </c>
       <c r="G1658" t="n">
-        <v>105872</v>
+        <v>105900</v>
       </c>
     </row>
     <row r="1659">
@@ -38606,7 +38606,7 @@
         <v>2</v>
       </c>
       <c r="G1659" t="n">
-        <v>248882</v>
+        <v>248900</v>
       </c>
     </row>
     <row r="1660">
@@ -38617,7 +38617,7 @@
         <v>2</v>
       </c>
       <c r="C1660" t="n">
-        <v>2.2901</v>
+        <v>2.29</v>
       </c>
       <c r="D1660" t="n">
         <v>1.96</v>
@@ -38629,7 +38629,7 @@
         <v>2.22</v>
       </c>
       <c r="G1660" t="n">
-        <v>464039</v>
+        <v>464000</v>
       </c>
     </row>
     <row r="1661">
@@ -38652,7 +38652,7 @@
         <v>2.16</v>
       </c>
       <c r="G1661" t="n">
-        <v>211072</v>
+        <v>211100</v>
       </c>
     </row>
     <row r="1662">
@@ -38675,7 +38675,7 @@
         <v>2.29</v>
       </c>
       <c r="G1662" t="n">
-        <v>115202</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="1663">
@@ -38698,7 +38698,7 @@
         <v>2.45</v>
       </c>
       <c r="G1663" t="n">
-        <v>349871</v>
+        <v>349900</v>
       </c>
     </row>
     <row r="1664">
@@ -38706,13 +38706,13 @@
         <v>43951</v>
       </c>
       <c r="B1664" t="n">
-        <v>1.62</v>
+        <v>2.4</v>
       </c>
       <c r="C1664" t="n">
-        <v>2.61</v>
+        <v>2.4</v>
       </c>
       <c r="D1664" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="E1664" t="n">
         <v>2.25</v>
@@ -38721,7 +38721,7 @@
         <v>2.25</v>
       </c>
       <c r="G1664" t="n">
-        <v>4351907</v>
+        <v>234000</v>
       </c>
     </row>
     <row r="1665">
@@ -38744,7 +38744,7 @@
         <v>2.2</v>
       </c>
       <c r="G1665" t="n">
-        <v>104939</v>
+        <v>104900</v>
       </c>
     </row>
     <row r="1666">
@@ -38767,7 +38767,7 @@
         <v>2.28</v>
       </c>
       <c r="G1666" t="n">
-        <v>89196</v>
+        <v>89200</v>
       </c>
     </row>
     <row r="1667">
@@ -38790,7 +38790,7 @@
         <v>2.13</v>
       </c>
       <c r="G1667" t="n">
-        <v>127388</v>
+        <v>127400</v>
       </c>
     </row>
     <row r="1668">
@@ -38813,7 +38813,7 @@
         <v>2.03</v>
       </c>
       <c r="G1668" t="n">
-        <v>285286</v>
+        <v>285300</v>
       </c>
     </row>
     <row r="1669">
@@ -38836,7 +38836,7 @@
         <v>2.11</v>
       </c>
       <c r="G1669" t="n">
-        <v>493709</v>
+        <v>493700</v>
       </c>
     </row>
     <row r="1670">
@@ -38859,7 +38859,7 @@
         <v>2.9</v>
       </c>
       <c r="G1670" t="n">
-        <v>1774659</v>
+        <v>1770200</v>
       </c>
     </row>
     <row r="1671">
@@ -38870,7 +38870,7 @@
         <v>2.79</v>
       </c>
       <c r="C1671" t="n">
-        <v>3.0098</v>
+        <v>3.01</v>
       </c>
       <c r="D1671" t="n">
         <v>2.61</v>
@@ -38882,7 +38882,7 @@
         <v>2.67</v>
       </c>
       <c r="G1671" t="n">
-        <v>475966</v>
+        <v>477200</v>
       </c>
     </row>
     <row r="1672">
@@ -38905,7 +38905,7 @@
         <v>2.69</v>
       </c>
       <c r="G1672" t="n">
-        <v>259751</v>
+        <v>259800</v>
       </c>
     </row>
     <row r="1673">
@@ -38928,7 +38928,7 @@
         <v>2.3</v>
       </c>
       <c r="G1673" t="n">
-        <v>343962</v>
+        <v>344000</v>
       </c>
     </row>
     <row r="1674">
@@ -38939,7 +38939,7 @@
         <v>2.26</v>
       </c>
       <c r="C1674" t="n">
-        <v>2.6399</v>
+        <v>2.64</v>
       </c>
       <c r="D1674" t="n">
         <v>2.25</v>
@@ -38951,7 +38951,7 @@
         <v>2.59</v>
       </c>
       <c r="G1674" t="n">
-        <v>282110</v>
+        <v>282100</v>
       </c>
     </row>
     <row r="1675">
@@ -38974,7 +38974,7 @@
         <v>2.46</v>
       </c>
       <c r="G1675" t="n">
-        <v>209340</v>
+        <v>209300</v>
       </c>
     </row>
     <row r="1676">
@@ -38997,7 +38997,7 @@
         <v>2.44</v>
       </c>
       <c r="G1676" t="n">
-        <v>279274</v>
+        <v>279300</v>
       </c>
     </row>
     <row r="1677">
@@ -39020,7 +39020,7 @@
         <v>2.73</v>
       </c>
       <c r="G1677" t="n">
-        <v>560006</v>
+        <v>560000</v>
       </c>
     </row>
     <row r="1678">
@@ -39043,7 +39043,7 @@
         <v>2.57</v>
       </c>
       <c r="G1678" t="n">
-        <v>559746</v>
+        <v>559700</v>
       </c>
     </row>
     <row r="1679">
@@ -39066,7 +39066,7 @@
         <v>2.66</v>
       </c>
       <c r="G1679" t="n">
-        <v>250270</v>
+        <v>250300</v>
       </c>
     </row>
     <row r="1680">
@@ -39089,7 +39089,7 @@
         <v>2.72</v>
       </c>
       <c r="G1680" t="n">
-        <v>196606</v>
+        <v>196600</v>
       </c>
     </row>
     <row r="1681">
@@ -39112,7 +39112,7 @@
         <v>2.73</v>
       </c>
       <c r="G1681" t="n">
-        <v>152591</v>
+        <v>152600</v>
       </c>
     </row>
     <row r="1682">
@@ -39135,7 +39135,7 @@
         <v>2.71</v>
       </c>
       <c r="G1682" t="n">
-        <v>177366</v>
+        <v>177400</v>
       </c>
     </row>
     <row r="1683">
@@ -39158,7 +39158,7 @@
         <v>2.53</v>
       </c>
       <c r="G1683" t="n">
-        <v>114730</v>
+        <v>114700</v>
       </c>
     </row>
     <row r="1684">
@@ -39166,13 +39166,13 @@
         <v>43980</v>
       </c>
       <c r="B1684" t="n">
-        <v>2.17</v>
+        <v>2.52</v>
       </c>
       <c r="C1684" t="n">
-        <v>3.09</v>
+        <v>2.69</v>
       </c>
       <c r="D1684" t="n">
-        <v>1.97</v>
+        <v>2.47</v>
       </c>
       <c r="E1684" t="n">
         <v>2.48</v>
@@ -39181,7 +39181,7 @@
         <v>2.48</v>
       </c>
       <c r="G1684" t="n">
-        <v>6993657</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="1685">
@@ -39204,7 +39204,7 @@
         <v>2.61</v>
       </c>
       <c r="G1685" t="n">
-        <v>212740</v>
+        <v>212700</v>
       </c>
     </row>
     <row r="1686">
@@ -39227,7 +39227,7 @@
         <v>2.67</v>
       </c>
       <c r="G1686" t="n">
-        <v>295232</v>
+        <v>295200</v>
       </c>
     </row>
     <row r="1687">
@@ -39250,7 +39250,7 @@
         <v>2.59</v>
       </c>
       <c r="G1687" t="n">
-        <v>222010</v>
+        <v>222000</v>
       </c>
     </row>
     <row r="1688">
@@ -39273,7 +39273,7 @@
         <v>2.61</v>
       </c>
       <c r="G1688" t="n">
-        <v>421973</v>
+        <v>422000</v>
       </c>
     </row>
     <row r="1689">
@@ -39296,7 +39296,7 @@
         <v>2.72</v>
       </c>
       <c r="G1689" t="n">
-        <v>427520</v>
+        <v>427500</v>
       </c>
     </row>
     <row r="1690">
@@ -39319,7 +39319,7 @@
         <v>2.64</v>
       </c>
       <c r="G1690" t="n">
-        <v>557942</v>
+        <v>557900</v>
       </c>
     </row>
     <row r="1691">
@@ -39342,7 +39342,7 @@
         <v>2.67</v>
       </c>
       <c r="G1691" t="n">
-        <v>228241</v>
+        <v>228200</v>
       </c>
     </row>
     <row r="1692">
@@ -39365,7 +39365,7 @@
         <v>2.75</v>
       </c>
       <c r="G1692" t="n">
-        <v>511861</v>
+        <v>511900</v>
       </c>
     </row>
     <row r="1693">
@@ -39388,7 +39388,7 @@
         <v>2.45</v>
       </c>
       <c r="G1693" t="n">
-        <v>415399</v>
+        <v>415400</v>
       </c>
     </row>
     <row r="1694">
@@ -39402,7 +39402,7 @@
         <v>2.63</v>
       </c>
       <c r="D1694" t="n">
-        <v>2.4001</v>
+        <v>2.4</v>
       </c>
       <c r="E1694" t="n">
         <v>2.45</v>
@@ -39411,7 +39411,7 @@
         <v>2.45</v>
       </c>
       <c r="G1694" t="n">
-        <v>172984</v>
+        <v>173000</v>
       </c>
     </row>
     <row r="1695">
@@ -39434,7 +39434,7 @@
         <v>2.42</v>
       </c>
       <c r="G1695" t="n">
-        <v>248793</v>
+        <v>248800</v>
       </c>
     </row>
     <row r="1696">
@@ -39457,7 +39457,7 @@
         <v>2.44</v>
       </c>
       <c r="G1696" t="n">
-        <v>139160</v>
+        <v>139200</v>
       </c>
     </row>
     <row r="1697">
@@ -39480,7 +39480,7 @@
         <v>2.33</v>
       </c>
       <c r="G1697" t="n">
-        <v>164863</v>
+        <v>164900</v>
       </c>
     </row>
     <row r="1698">
@@ -39503,7 +39503,7 @@
         <v>2.24</v>
       </c>
       <c r="G1698" t="n">
-        <v>235304</v>
+        <v>235300</v>
       </c>
     </row>
     <row r="1699">
@@ -39517,7 +39517,7 @@
         <v>2.39</v>
       </c>
       <c r="D1699" t="n">
-        <v>2.265</v>
+        <v>2.27</v>
       </c>
       <c r="E1699" t="n">
         <v>2.36</v>
@@ -39526,7 +39526,7 @@
         <v>2.36</v>
       </c>
       <c r="G1699" t="n">
-        <v>192569</v>
+        <v>192600</v>
       </c>
     </row>
     <row r="1700">
@@ -39537,7 +39537,7 @@
         <v>2.31</v>
       </c>
       <c r="C1700" t="n">
-        <v>2.3284</v>
+        <v>2.33</v>
       </c>
       <c r="D1700" t="n">
         <v>2.22</v>
@@ -39549,7 +39549,7 @@
         <v>2.26</v>
       </c>
       <c r="G1700" t="n">
-        <v>166592</v>
+        <v>166600</v>
       </c>
     </row>
     <row r="1701">
@@ -39572,7 +39572,7 @@
         <v>2.17</v>
       </c>
       <c r="G1701" t="n">
-        <v>350121</v>
+        <v>350100</v>
       </c>
     </row>
     <row r="1702">
@@ -39595,7 +39595,7 @@
         <v>2.21</v>
       </c>
       <c r="G1702" t="n">
-        <v>258037</v>
+        <v>258000</v>
       </c>
     </row>
     <row r="1703">
@@ -39609,7 +39609,7 @@
         <v>2.42</v>
       </c>
       <c r="D1703" t="n">
-        <v>2.1878</v>
+        <v>2.19</v>
       </c>
       <c r="E1703" t="n">
         <v>2.42</v>
@@ -39618,7 +39618,7 @@
         <v>2.42</v>
       </c>
       <c r="G1703" t="n">
-        <v>501421</v>
+        <v>501400</v>
       </c>
     </row>
     <row r="1704">
@@ -39641,7 +39641,7 @@
         <v>2.3</v>
       </c>
       <c r="G1704" t="n">
-        <v>1971924</v>
+        <v>1971900</v>
       </c>
     </row>
     <row r="1705">
@@ -39672,13 +39672,13 @@
         <v>44012</v>
       </c>
       <c r="B1706" t="n">
-        <v>2.48</v>
+        <v>2.31</v>
       </c>
       <c r="C1706" t="n">
-        <v>2.9</v>
+        <v>2.39</v>
       </c>
       <c r="D1706" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="E1706" t="n">
         <v>2.23</v>
@@ -39687,7 +39687,7 @@
         <v>2.23</v>
       </c>
       <c r="G1706" t="n">
-        <v>7947186</v>
+        <v>116700</v>
       </c>
     </row>
     <row r="1707">
@@ -39986,7 +39986,7 @@
         <v>2.24</v>
       </c>
       <c r="G1719" t="n">
-        <v>117171</v>
+        <v>117200</v>
       </c>
     </row>
     <row r="1720">
@@ -40009,7 +40009,7 @@
         <v>2.2</v>
       </c>
       <c r="G1720" t="n">
-        <v>107208</v>
+        <v>107200</v>
       </c>
     </row>
     <row r="1721">
@@ -40023,7 +40023,7 @@
         <v>2.2</v>
       </c>
       <c r="D1721" t="n">
-        <v>2.1403</v>
+        <v>2.14</v>
       </c>
       <c r="E1721" t="n">
         <v>2.16</v>
@@ -40032,7 +40032,7 @@
         <v>2.16</v>
       </c>
       <c r="G1721" t="n">
-        <v>52417</v>
+        <v>52400</v>
       </c>
     </row>
     <row r="1722">
@@ -40055,7 +40055,7 @@
         <v>2.14</v>
       </c>
       <c r="G1722" t="n">
-        <v>80840</v>
+        <v>80800</v>
       </c>
     </row>
     <row r="1723">
@@ -40078,7 +40078,7 @@
         <v>2.1</v>
       </c>
       <c r="G1723" t="n">
-        <v>74893</v>
+        <v>74900</v>
       </c>
     </row>
     <row r="1724">
@@ -40101,7 +40101,7 @@
         <v>2.62</v>
       </c>
       <c r="G1724" t="n">
-        <v>1645719</v>
+        <v>1645700</v>
       </c>
     </row>
     <row r="1725">
@@ -40115,7 +40115,7 @@
         <v>11.8</v>
       </c>
       <c r="D1725" t="n">
-        <v>6</v>
+        <v>7.62</v>
       </c>
       <c r="E1725" t="n">
         <v>7.94</v>
@@ -40124,7 +40124,7 @@
         <v>7.94</v>
       </c>
       <c r="G1725" t="n">
-        <v>263966862</v>
+        <v>284666800</v>
       </c>
     </row>
     <row r="1726">
@@ -40141,13 +40141,13 @@
         <v>17.5</v>
       </c>
       <c r="E1726" t="n">
-        <v>33.2</v>
+        <v>33.200001</v>
       </c>
       <c r="F1726" t="n">
-        <v>33.2</v>
+        <v>33.200001</v>
       </c>
       <c r="G1726" t="n">
-        <v>272277519</v>
+        <v>276020100</v>
       </c>
     </row>
     <row r="1727">
@@ -40155,10 +40155,10 @@
         <v>44042</v>
       </c>
       <c r="B1727" t="n">
-        <v>43.58</v>
+        <v>43.580002</v>
       </c>
       <c r="C1727" t="n">
-        <v>44.44</v>
+        <v>44.439999</v>
       </c>
       <c r="D1727" t="n">
         <v>27.5</v>
@@ -40170,7 +40170,7 @@
         <v>29.83</v>
       </c>
       <c r="G1727" t="n">
-        <v>98747516</v>
+        <v>98747500</v>
       </c>
     </row>
     <row r="1728">
@@ -40178,13 +40178,13 @@
         <v>44043</v>
       </c>
       <c r="B1728" t="n">
-        <v>2.24</v>
+        <v>25.02</v>
       </c>
       <c r="C1728" t="n">
-        <v>60</v>
+        <v>25.700001</v>
       </c>
       <c r="D1728" t="n">
-        <v>2</v>
+        <v>20.27</v>
       </c>
       <c r="E1728" t="n">
         <v>21.85</v>
@@ -40193,7 +40193,7 @@
         <v>21.85</v>
       </c>
       <c r="G1728" t="n">
-        <v>696367736</v>
+        <v>57323800</v>
       </c>
     </row>
     <row r="1729">
@@ -40201,7 +40201,7 @@
         <v>44046</v>
       </c>
       <c r="B1729" t="n">
-        <v>21.13</v>
+        <v>21.129999</v>
       </c>
       <c r="C1729" t="n">
         <v>21.16</v>
@@ -40216,7 +40216,7 @@
         <v>14.94</v>
       </c>
       <c r="G1729" t="n">
-        <v>47189247</v>
+        <v>47189200</v>
       </c>
     </row>
     <row r="1730">
@@ -40227,7 +40227,7 @@
         <v>15.08</v>
       </c>
       <c r="C1730" t="n">
-        <v>17.88</v>
+        <v>17.879999</v>
       </c>
       <c r="D1730" t="n">
         <v>12.86</v>
@@ -40239,7 +40239,7 @@
         <v>14.4</v>
       </c>
       <c r="G1730" t="n">
-        <v>65895170</v>
+        <v>65895200</v>
       </c>
     </row>
     <row r="1731">
@@ -40262,7 +40262,7 @@
         <v>14.9</v>
       </c>
       <c r="G1731" t="n">
-        <v>25624904</v>
+        <v>25496800</v>
       </c>
     </row>
     <row r="1732">
@@ -40279,13 +40279,13 @@
         <v>14.8</v>
       </c>
       <c r="E1732" t="n">
-        <v>16.11</v>
+        <v>16.110001</v>
       </c>
       <c r="F1732" t="n">
-        <v>16.11</v>
+        <v>16.110001</v>
       </c>
       <c r="G1732" t="n">
-        <v>39493118</v>
+        <v>39493100</v>
       </c>
     </row>
     <row r="1733">
@@ -40308,7 +40308,7 @@
         <v>14.88</v>
       </c>
       <c r="G1733" t="n">
-        <v>16139254</v>
+        <v>16139300</v>
       </c>
     </row>
     <row r="1734">
@@ -40331,7 +40331,7 @@
         <v>10.73</v>
       </c>
       <c r="G1734" t="n">
-        <v>47435807</v>
+        <v>47435800</v>
       </c>
     </row>
     <row r="1735">
@@ -40354,7 +40354,7 @@
         <v>10.01</v>
       </c>
       <c r="G1735" t="n">
-        <v>19420168</v>
+        <v>19420200</v>
       </c>
     </row>
     <row r="1736">
@@ -40377,7 +40377,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="G1736" t="n">
-        <v>9539913</v>
+        <v>9499800</v>
       </c>
     </row>
     <row r="1737">
@@ -40400,7 +40400,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="G1737" t="n">
-        <v>8791176</v>
+        <v>8791200</v>
       </c>
     </row>
     <row r="1738">
@@ -40423,7 +40423,7 @@
         <v>8.43</v>
       </c>
       <c r="G1738" t="n">
-        <v>10571460</v>
+        <v>10571500</v>
       </c>
     </row>
     <row r="1739">
@@ -40446,7 +40446,7 @@
         <v>7.64</v>
       </c>
       <c r="G1739" t="n">
-        <v>9169438</v>
+        <v>9350300</v>
       </c>
     </row>
     <row r="1740">
@@ -40469,7 +40469,7 @@
         <v>8.01</v>
       </c>
       <c r="G1740" t="n">
-        <v>72777520</v>
+        <v>72777500</v>
       </c>
     </row>
     <row r="1741">
@@ -40492,7 +40492,7 @@
         <v>7.79</v>
       </c>
       <c r="G1741" t="n">
-        <v>32261459</v>
+        <v>32261500</v>
       </c>
     </row>
     <row r="1742">
@@ -40515,7 +40515,7 @@
         <v>7.18</v>
       </c>
       <c r="G1742" t="n">
-        <v>13743910</v>
+        <v>13743900</v>
       </c>
     </row>
     <row r="1743">
@@ -40538,7 +40538,7 @@
         <v>6.88</v>
       </c>
       <c r="G1743" t="n">
-        <v>26249302</v>
+        <v>26249300</v>
       </c>
     </row>
     <row r="1744">
@@ -40561,7 +40561,7 @@
         <v>7</v>
       </c>
       <c r="G1744" t="n">
-        <v>13844206</v>
+        <v>13844200</v>
       </c>
     </row>
     <row r="1745">
@@ -40584,7 +40584,7 @@
         <v>6.76</v>
       </c>
       <c r="G1745" t="n">
-        <v>13970327</v>
+        <v>13970300</v>
       </c>
     </row>
     <row r="1746">
@@ -40598,7 +40598,7 @@
         <v>6.75</v>
       </c>
       <c r="D1746" t="n">
-        <v>6.085</v>
+        <v>6.09</v>
       </c>
       <c r="E1746" t="n">
         <v>6.31</v>
@@ -40607,7 +40607,7 @@
         <v>6.31</v>
       </c>
       <c r="G1746" t="n">
-        <v>11812333</v>
+        <v>11812300</v>
       </c>
     </row>
     <row r="1747">
@@ -40630,7 +40630,7 @@
         <v>5.88</v>
       </c>
       <c r="G1747" t="n">
-        <v>11650311</v>
+        <v>11650300</v>
       </c>
     </row>
     <row r="1748">
@@ -40653,7 +40653,7 @@
         <v>6.02</v>
       </c>
       <c r="G1748" t="n">
-        <v>14025907</v>
+        <v>13991000</v>
       </c>
     </row>
     <row r="1749">
@@ -40661,13 +40661,13 @@
         <v>44074</v>
       </c>
       <c r="B1749" t="n">
-        <v>21.13</v>
+        <v>5.9</v>
       </c>
       <c r="C1749" t="n">
-        <v>21.16</v>
+        <v>6.37</v>
       </c>
       <c r="D1749" t="n">
-        <v>5.66</v>
+        <v>5.85</v>
       </c>
       <c r="E1749" t="n">
         <v>5.98</v>
@@ -40676,7 +40676,7 @@
         <v>5.98</v>
       </c>
       <c r="G1749" t="n">
-        <v>528756093</v>
+        <v>19151200</v>
       </c>
     </row>
     <row r="1750">
@@ -40699,7 +40699,7 @@
         <v>7.3</v>
       </c>
       <c r="G1750" t="n">
-        <v>106470985</v>
+        <v>106239600</v>
       </c>
     </row>
     <row r="1751">
@@ -40722,7 +40722,7 @@
         <v>7.16</v>
       </c>
       <c r="G1751" t="n">
-        <v>19328665</v>
+        <v>19328700</v>
       </c>
     </row>
     <row r="1752">
@@ -40745,7 +40745,7 @@
         <v>6.46</v>
       </c>
       <c r="G1752" t="n">
-        <v>13400804</v>
+        <v>13400800</v>
       </c>
     </row>
     <row r="1753">
@@ -40768,7 +40768,7 @@
         <v>6.1</v>
       </c>
       <c r="G1753" t="n">
-        <v>8801284</v>
+        <v>8801300</v>
       </c>
     </row>
     <row r="1754">
@@ -40791,7 +40791,7 @@
         <v>5.53</v>
       </c>
       <c r="G1754" t="n">
-        <v>9758065</v>
+        <v>9758100</v>
       </c>
     </row>
     <row r="1755">
@@ -40799,7 +40799,7 @@
         <v>44083</v>
       </c>
       <c r="B1755" t="n">
-        <v>5.6399</v>
+        <v>5.64</v>
       </c>
       <c r="C1755" t="n">
         <v>6.53</v>
@@ -40814,7 +40814,7 @@
         <v>5.82</v>
       </c>
       <c r="G1755" t="n">
-        <v>15551759</v>
+        <v>15551800</v>
       </c>
     </row>
     <row r="1756">
@@ -40837,7 +40837,7 @@
         <v>5.93</v>
       </c>
       <c r="G1756" t="n">
-        <v>12752506</v>
+        <v>12752500</v>
       </c>
     </row>
     <row r="1757">
@@ -40860,7 +40860,7 @@
         <v>6.4</v>
       </c>
       <c r="G1757" t="n">
-        <v>20467764</v>
+        <v>20467800</v>
       </c>
     </row>
     <row r="1758">
@@ -40883,7 +40883,7 @@
         <v>6.5</v>
       </c>
       <c r="G1758" t="n">
-        <v>8882444</v>
+        <v>8882400</v>
       </c>
     </row>
     <row r="1759">
@@ -40894,10 +40894,10 @@
         <v>6.48</v>
       </c>
       <c r="C1759" t="n">
-        <v>6.531</v>
+        <v>6.53</v>
       </c>
       <c r="D1759" t="n">
-        <v>5.9375</v>
+        <v>5.94</v>
       </c>
       <c r="E1759" t="n">
         <v>6.23</v>
@@ -40906,7 +40906,7 @@
         <v>6.23</v>
       </c>
       <c r="G1759" t="n">
-        <v>11014924</v>
+        <v>11014900</v>
       </c>
     </row>
     <row r="1760">
@@ -40929,7 +40929,7 @@
         <v>8.51</v>
       </c>
       <c r="G1760" t="n">
-        <v>188494204</v>
+        <v>187625500</v>
       </c>
     </row>
     <row r="1761">
@@ -40952,7 +40952,7 @@
         <v>10.7</v>
       </c>
       <c r="G1761" t="n">
-        <v>101916073</v>
+        <v>101916100</v>
       </c>
     </row>
     <row r="1762">
@@ -40975,7 +40975,7 @@
         <v>12.11</v>
       </c>
       <c r="G1762" t="n">
-        <v>150083990</v>
+        <v>150084000</v>
       </c>
     </row>
     <row r="1763">
@@ -40998,7 +40998,7 @@
         <v>10.49</v>
       </c>
       <c r="G1763" t="n">
-        <v>43448577</v>
+        <v>43448600</v>
       </c>
     </row>
     <row r="1764">
@@ -41021,7 +41021,7 @@
         <v>10.04</v>
       </c>
       <c r="G1764" t="n">
-        <v>21649406</v>
+        <v>21649400</v>
       </c>
     </row>
     <row r="1765">
@@ -41044,7 +41044,7 @@
         <v>8.93</v>
       </c>
       <c r="G1765" t="n">
-        <v>17583691</v>
+        <v>17583700</v>
       </c>
     </row>
     <row r="1766">
@@ -41052,13 +41052,13 @@
         <v>44098</v>
       </c>
       <c r="B1766" t="n">
-        <v>9.48</v>
+        <v>8.34</v>
       </c>
       <c r="C1766" t="n">
-        <v>12.51</v>
+        <v>9.69</v>
       </c>
       <c r="D1766" t="n">
-        <v>5.51</v>
+        <v>7.82</v>
       </c>
       <c r="E1766" t="n">
         <v>8.77</v>
@@ -41067,7 +41067,7 @@
         <v>8.77</v>
       </c>
       <c r="G1766" t="n">
-        <v>767481327</v>
+        <v>17876200</v>
       </c>
     </row>
     <row r="1767">
@@ -41075,13 +41075,13 @@
         <v>44099</v>
       </c>
       <c r="B1767" t="n">
-        <v>9.48</v>
+        <v>9.01</v>
       </c>
       <c r="C1767" t="n">
-        <v>12.51</v>
+        <v>9.49</v>
       </c>
       <c r="D1767" t="n">
-        <v>5.51</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E1767" t="n">
         <v>9.32</v>
@@ -41090,7 +41090,7 @@
         <v>9.32</v>
       </c>
       <c r="G1767" t="n">
-        <v>777397291</v>
+        <v>9916000</v>
       </c>
     </row>
     <row r="1768">
@@ -41101,7 +41101,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="C1768" t="n">
-        <v>9.605</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D1768" t="n">
         <v>8.949999999999999</v>
@@ -41113,7 +41113,7 @@
         <v>9.31</v>
       </c>
       <c r="G1768" t="n">
-        <v>7260553</v>
+        <v>7260600</v>
       </c>
     </row>
     <row r="1769">
@@ -41121,13 +41121,13 @@
         <v>44103</v>
       </c>
       <c r="B1769" t="n">
-        <v>9.48</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="C1769" t="n">
-        <v>12.51</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="D1769" t="n">
-        <v>5.51</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="E1769" t="n">
         <v>9</v>
@@ -41136,7 +41136,7 @@
         <v>9</v>
       </c>
       <c r="G1769" t="n">
-        <v>789791736</v>
+        <v>5114200</v>
       </c>
     </row>
     <row r="1770">
@@ -41144,13 +41144,13 @@
         <v>44104</v>
       </c>
       <c r="B1770" t="n">
-        <v>9.48</v>
+        <v>8.85</v>
       </c>
       <c r="C1770" t="n">
-        <v>12.51</v>
+        <v>9.49</v>
       </c>
       <c r="D1770" t="n">
-        <v>5.51</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="E1770" t="n">
         <v>8.82</v>
@@ -41159,7 +41159,7 @@
         <v>8.82</v>
       </c>
       <c r="G1770" t="n">
-        <v>798349425</v>
+        <v>8557700</v>
       </c>
     </row>
     <row r="1771">
@@ -41170,7 +41170,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="C1771" t="n">
-        <v>9.127800000000001</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="D1771" t="n">
         <v>8.67</v>
@@ -41182,7 +41182,7 @@
         <v>8.82</v>
       </c>
       <c r="G1771" t="n">
-        <v>6346682</v>
+        <v>6346700</v>
       </c>
     </row>
     <row r="1772">
@@ -41190,10 +41190,10 @@
         <v>44106</v>
       </c>
       <c r="B1772" t="n">
-        <v>8.880000000000001</v>
+        <v>8.43</v>
       </c>
       <c r="C1772" t="n">
-        <v>9.127800000000001</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="D1772" t="n">
         <v>8.32</v>
@@ -41205,6447 +41205,2583 @@
         <v>8.76</v>
       </c>
       <c r="G1772" t="n">
-        <v>14073049</v>
+        <v>7798700</v>
       </c>
     </row>
     <row r="1773">
       <c r="A1773" s="2" t="n">
-        <v>44110</v>
+        <v>44109</v>
       </c>
       <c r="B1773" t="n">
-        <v>8.880000000000001</v>
+        <v>8.76</v>
       </c>
       <c r="C1773" t="n">
         <v>9.359999999999999</v>
       </c>
       <c r="D1773" t="n">
-        <v>8.32</v>
+        <v>8.58</v>
       </c>
       <c r="E1773" t="n">
-        <v>8.75</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="F1773" t="n">
-        <v>8.75</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="G1773" t="n">
-        <v>33025662</v>
+        <v>10434500</v>
       </c>
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
-        <v>44111</v>
+        <v>44110</v>
       </c>
       <c r="B1774" t="n">
-        <v>8.880000000000001</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="C1774" t="n">
-        <v>9.359999999999999</v>
+        <v>9.32</v>
       </c>
       <c r="D1774" t="n">
-        <v>8.32</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="E1774" t="n">
-        <v>8.98</v>
+        <v>8.75</v>
       </c>
       <c r="F1774" t="n">
-        <v>8.98</v>
+        <v>8.75</v>
       </c>
       <c r="G1774" t="n">
-        <v>39074037</v>
+        <v>8445800</v>
       </c>
     </row>
     <row r="1775">
       <c r="A1775" s="2" t="n">
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="B1775" t="n">
-        <v>8.880000000000001</v>
+        <v>8.91</v>
       </c>
       <c r="C1775" t="n">
-        <v>9.359999999999999</v>
+        <v>9.06</v>
       </c>
       <c r="D1775" t="n">
-        <v>8.32</v>
+        <v>8.74</v>
       </c>
       <c r="E1775" t="n">
-        <v>8.859999999999999</v>
+        <v>8.98</v>
       </c>
       <c r="F1775" t="n">
-        <v>8.859999999999999</v>
+        <v>8.98</v>
       </c>
       <c r="G1775" t="n">
-        <v>43683971</v>
+        <v>6048400</v>
       </c>
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="B1776" t="n">
-        <v>8.880000000000001</v>
+        <v>9</v>
       </c>
       <c r="C1776" t="n">
-        <v>10.77</v>
+        <v>9.09</v>
       </c>
       <c r="D1776" t="n">
-        <v>8.32</v>
+        <v>8.74</v>
       </c>
       <c r="E1776" t="n">
-        <v>10.01</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="F1776" t="n">
-        <v>10.01</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="G1776" t="n">
-        <v>83149043</v>
+        <v>4609900</v>
       </c>
     </row>
     <row r="1777">
       <c r="A1777" s="2" t="n">
-        <v>44117</v>
+        <v>44113</v>
       </c>
       <c r="B1777" t="n">
-        <v>8.880000000000001</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="C1777" t="n">
         <v>10.77</v>
       </c>
       <c r="D1777" t="n">
-        <v>8.32</v>
+        <v>8.85</v>
       </c>
       <c r="E1777" t="n">
-        <v>9.69</v>
+        <v>10.01</v>
       </c>
       <c r="F1777" t="n">
-        <v>9.69</v>
+        <v>10.01</v>
       </c>
       <c r="G1777" t="n">
-        <v>103230145</v>
+        <v>39465100</v>
       </c>
     </row>
     <row r="1778">
       <c r="A1778" s="2" t="n">
-        <v>44120</v>
+        <v>44116</v>
       </c>
       <c r="B1778" t="n">
-        <v>8.880000000000001</v>
+        <v>10.03</v>
       </c>
       <c r="C1778" t="n">
-        <v>10.77</v>
+        <v>10.49</v>
       </c>
       <c r="D1778" t="n">
-        <v>8.32</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="E1778" t="n">
-        <v>8.970000000000001</v>
+        <v>9.58</v>
       </c>
       <c r="F1778" t="n">
-        <v>8.970000000000001</v>
+        <v>9.58</v>
       </c>
       <c r="G1778" t="n">
-        <v>124291213</v>
+        <v>11475200</v>
       </c>
     </row>
     <row r="1779">
       <c r="A1779" s="2" t="n">
-        <v>44123</v>
+        <v>44117</v>
       </c>
       <c r="B1779" t="n">
-        <v>8.880000000000001</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="C1779" t="n">
-        <v>10.77</v>
+        <v>10.13</v>
       </c>
       <c r="D1779" t="n">
-        <v>8.32</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="E1779" t="n">
-        <v>8.880000000000001</v>
+        <v>9.69</v>
       </c>
       <c r="F1779" t="n">
-        <v>8.880000000000001</v>
+        <v>9.69</v>
       </c>
       <c r="G1779" t="n">
-        <v>139875858</v>
+        <v>8605900</v>
       </c>
     </row>
     <row r="1780">
       <c r="A1780" s="2" t="n">
-        <v>44125</v>
+        <v>44118</v>
       </c>
       <c r="B1780" t="n">
-        <v>8.880000000000001</v>
+        <v>9.65</v>
       </c>
       <c r="C1780" t="n">
-        <v>10.77</v>
+        <v>9.74</v>
       </c>
       <c r="D1780" t="n">
-        <v>8.32</v>
+        <v>9.4</v>
       </c>
       <c r="E1780" t="n">
-        <v>8.699999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="F1780" t="n">
-        <v>8.699999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="G1780" t="n">
-        <v>151266231</v>
+        <v>5401800</v>
       </c>
     </row>
     <row r="1781">
       <c r="A1781" s="2" t="n">
-        <v>44127</v>
+        <v>44119</v>
       </c>
       <c r="B1781" t="n">
-        <v>8.880000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C1781" t="n">
-        <v>10.77</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="D1781" t="n">
-        <v>8.18</v>
+        <v>9.18</v>
       </c>
       <c r="E1781" t="n">
-        <v>8.470000000000001</v>
+        <v>9.33</v>
       </c>
       <c r="F1781" t="n">
-        <v>8.470000000000001</v>
+        <v>9.33</v>
       </c>
       <c r="G1781" t="n">
-        <v>162317090</v>
+        <v>4983800</v>
       </c>
     </row>
     <row r="1782">
       <c r="A1782" s="2" t="n">
-        <v>44131</v>
+        <v>44120</v>
       </c>
       <c r="B1782" t="n">
-        <v>8.880000000000001</v>
+        <v>9.41</v>
       </c>
       <c r="C1782" t="n">
-        <v>10.77</v>
+        <v>9.9</v>
       </c>
       <c r="D1782" t="n">
-        <v>7.6</v>
+        <v>8.93</v>
       </c>
       <c r="E1782" t="n">
-        <v>7.68</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="F1782" t="n">
-        <v>7.68</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="G1782" t="n">
-        <v>172592063</v>
+        <v>10662000</v>
       </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
-        <v>44133</v>
+        <v>44123</v>
       </c>
       <c r="B1783" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="E1783" t="n">
         <v>8.880000000000001</v>
       </c>
-      <c r="C1783" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="D1783" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="E1783" t="n">
-        <v>7.41</v>
-      </c>
       <c r="F1783" t="n">
-        <v>7.41</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="G1783" t="n">
-        <v>184900106</v>
+        <v>15584600</v>
       </c>
     </row>
     <row r="1784">
       <c r="A1784" s="2" t="n">
-        <v>44134</v>
+        <v>44124</v>
       </c>
       <c r="B1784" t="n">
-        <v>8.880000000000001</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="C1784" t="n">
-        <v>10.77</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D1784" t="n">
-        <v>6.73</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="E1784" t="n">
-        <v>6.92</v>
+        <v>8.91</v>
       </c>
       <c r="F1784" t="n">
-        <v>6.92</v>
+        <v>8.91</v>
       </c>
       <c r="G1784" t="n">
-        <v>191304253</v>
+        <v>5953600</v>
       </c>
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
-        <v>44153</v>
+        <v>44125</v>
       </c>
       <c r="B1785" t="n">
-        <v>6.99</v>
+        <v>8.94</v>
       </c>
       <c r="C1785" t="n">
-        <v>7.66</v>
+        <v>8.99</v>
       </c>
       <c r="D1785" t="n">
-        <v>6.36</v>
+        <v>8.66</v>
       </c>
       <c r="E1785" t="n">
-        <v>7.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F1785" t="n">
-        <v>7.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G1785" t="n">
-        <v>78798294</v>
+        <v>5436800</v>
       </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
-        <v>44159</v>
+        <v>44126</v>
       </c>
       <c r="B1786" t="n">
-        <v>6.99</v>
+        <v>8.69</v>
       </c>
       <c r="C1786" t="n">
-        <v>7.66</v>
+        <v>8.76</v>
       </c>
       <c r="D1786" t="n">
-        <v>6.36</v>
+        <v>8.18</v>
       </c>
       <c r="E1786" t="n">
-        <v>6.97</v>
+        <v>8.48</v>
       </c>
       <c r="F1786" t="n">
-        <v>6.97</v>
+        <v>8.48</v>
       </c>
       <c r="G1786" t="n">
-        <v>97147521</v>
+        <v>6888400</v>
       </c>
     </row>
     <row r="1787">
       <c r="A1787" s="2" t="n">
-        <v>44165</v>
+        <v>44127</v>
       </c>
       <c r="B1787" t="n">
-        <v>6.99</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="C1787" t="n">
-        <v>8.300000000000001</v>
+        <v>8.66</v>
       </c>
       <c r="D1787" t="n">
-        <v>6.36</v>
+        <v>8.31</v>
       </c>
       <c r="E1787" t="n">
-        <v>7.63</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="F1787" t="n">
-        <v>7.63</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="G1787" t="n">
-        <v>136499192</v>
+        <v>4162400</v>
       </c>
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
-        <v>44174</v>
+        <v>44130</v>
       </c>
       <c r="B1788" t="n">
-        <v>7.65</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C1788" t="n">
-        <v>14.18</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="D1788" t="n">
-        <v>6.91</v>
+        <v>7.6</v>
       </c>
       <c r="E1788" t="n">
-        <v>9.66</v>
+        <v>7.88</v>
       </c>
       <c r="F1788" t="n">
-        <v>9.66</v>
+        <v>7.88</v>
       </c>
       <c r="G1788" t="n">
-        <v>193316693</v>
+        <v>7338100</v>
       </c>
     </row>
     <row r="1789">
       <c r="A1789" s="2" t="n">
-        <v>44193</v>
+        <v>44131</v>
       </c>
       <c r="B1789" t="n">
-        <v>7.65</v>
+        <v>7.87</v>
       </c>
       <c r="C1789" t="n">
-        <v>14.18</v>
+        <v>7.98</v>
       </c>
       <c r="D1789" t="n">
-        <v>6.91</v>
+        <v>7.64</v>
       </c>
       <c r="E1789" t="n">
-        <v>8.369999999999999</v>
+        <v>7.68</v>
       </c>
       <c r="F1789" t="n">
-        <v>8.369999999999999</v>
+        <v>7.68</v>
       </c>
       <c r="G1789" t="n">
-        <v>255515661</v>
+        <v>2936800</v>
       </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
-        <v>44196</v>
+        <v>44132</v>
       </c>
       <c r="B1790" t="n">
-        <v>7.65</v>
+        <v>7.35</v>
       </c>
       <c r="C1790" t="n">
-        <v>14.18</v>
+        <v>7.52</v>
       </c>
       <c r="D1790" t="n">
-        <v>6.91</v>
+        <v>7.08</v>
       </c>
       <c r="E1790" t="n">
-        <v>8.140000000000001</v>
+        <v>7.21</v>
       </c>
       <c r="F1790" t="n">
-        <v>8.140000000000001</v>
+        <v>7.21</v>
       </c>
       <c r="G1790" t="n">
-        <v>269820855</v>
+        <v>6680000</v>
       </c>
     </row>
     <row r="1791">
       <c r="A1791" s="2" t="n">
-        <v>44202</v>
+        <v>44133</v>
       </c>
       <c r="B1791" t="n">
-        <v>8.19</v>
+        <v>7.24</v>
       </c>
       <c r="C1791" t="n">
-        <v>8.6</v>
+        <v>7.53</v>
       </c>
       <c r="D1791" t="n">
-        <v>7.85</v>
+        <v>7.12</v>
       </c>
       <c r="E1791" t="n">
-        <v>8.16</v>
+        <v>7.41</v>
       </c>
       <c r="F1791" t="n">
-        <v>8.16</v>
+        <v>7.41</v>
       </c>
       <c r="G1791" t="n">
-        <v>10799390</v>
+        <v>5628100</v>
       </c>
     </row>
     <row r="1792">
       <c r="A1792" s="2" t="n">
-        <v>44204</v>
+        <v>44134</v>
       </c>
       <c r="B1792" t="n">
-        <v>8.19</v>
+        <v>7.28</v>
       </c>
       <c r="C1792" t="n">
-        <v>8.85</v>
+        <v>7.3</v>
       </c>
       <c r="D1792" t="n">
-        <v>7.85</v>
+        <v>6.73</v>
       </c>
       <c r="E1792" t="n">
-        <v>8.4</v>
+        <v>6.92</v>
       </c>
       <c r="F1792" t="n">
-        <v>8.4</v>
+        <v>6.92</v>
       </c>
       <c r="G1792" t="n">
-        <v>23115474</v>
+        <v>6399100</v>
       </c>
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
-        <v>44207</v>
+        <v>44137</v>
       </c>
       <c r="B1793" t="n">
-        <v>8.19</v>
+        <v>6.99</v>
       </c>
       <c r="C1793" t="n">
-        <v>8.85</v>
+        <v>7.13</v>
       </c>
       <c r="D1793" t="n">
-        <v>7.85</v>
+        <v>6.82</v>
       </c>
       <c r="E1793" t="n">
-        <v>8.119999999999999</v>
+        <v>6.96</v>
       </c>
       <c r="F1793" t="n">
-        <v>8.119999999999999</v>
+        <v>6.96</v>
       </c>
       <c r="G1793" t="n">
-        <v>28041777</v>
+        <v>3997800</v>
       </c>
     </row>
     <row r="1794">
       <c r="A1794" s="2" t="n">
-        <v>44208</v>
+        <v>44138</v>
       </c>
       <c r="B1794" t="n">
-        <v>8.19</v>
+        <v>7.04</v>
       </c>
       <c r="C1794" t="n">
-        <v>8.85</v>
+        <v>7.34</v>
       </c>
       <c r="D1794" t="n">
-        <v>7.85</v>
+        <v>6.95</v>
       </c>
       <c r="E1794" t="n">
-        <v>8.050000000000001</v>
+        <v>7.14</v>
       </c>
       <c r="F1794" t="n">
-        <v>8.050000000000001</v>
+        <v>7.14</v>
       </c>
       <c r="G1794" t="n">
-        <v>32082631</v>
+        <v>5098200</v>
       </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
-        <v>44211</v>
+        <v>44139</v>
       </c>
       <c r="B1795" t="n">
-        <v>8.19</v>
+        <v>7.46</v>
       </c>
       <c r="C1795" t="n">
-        <v>8.91</v>
+        <v>7.52</v>
       </c>
       <c r="D1795" t="n">
-        <v>7.82</v>
+        <v>6.92</v>
       </c>
       <c r="E1795" t="n">
-        <v>8.140000000000001</v>
+        <v>7.16</v>
       </c>
       <c r="F1795" t="n">
-        <v>8.140000000000001</v>
+        <v>7.16</v>
       </c>
       <c r="G1795" t="n">
-        <v>47328868</v>
+        <v>7781900</v>
       </c>
     </row>
     <row r="1796">
       <c r="A1796" s="2" t="n">
-        <v>44215</v>
+        <v>44140</v>
       </c>
       <c r="B1796" t="n">
-        <v>8.19</v>
+        <v>7.13</v>
       </c>
       <c r="C1796" t="n">
-        <v>9.35</v>
+        <v>7.34</v>
       </c>
       <c r="D1796" t="n">
-        <v>7.82</v>
+        <v>7.06</v>
       </c>
       <c r="E1796" t="n">
-        <v>8.84</v>
+        <v>7.3</v>
       </c>
       <c r="F1796" t="n">
-        <v>8.84</v>
+        <v>7.3</v>
       </c>
       <c r="G1796" t="n">
-        <v>58345440</v>
+        <v>3948900</v>
       </c>
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
-        <v>44216</v>
+        <v>44141</v>
       </c>
       <c r="B1797" t="n">
-        <v>8.19</v>
+        <v>7.14</v>
       </c>
       <c r="C1797" t="n">
-        <v>9.35</v>
+        <v>7.15</v>
       </c>
       <c r="D1797" t="n">
-        <v>7.82</v>
+        <v>6.67</v>
       </c>
       <c r="E1797" t="n">
-        <v>9.029999999999999</v>
+        <v>6.72</v>
       </c>
       <c r="F1797" t="n">
-        <v>9.029999999999999</v>
+        <v>6.72</v>
       </c>
       <c r="G1797" t="n">
-        <v>66286919</v>
+        <v>8246500</v>
       </c>
     </row>
     <row r="1798">
       <c r="A1798" s="2" t="n">
-        <v>44217</v>
+        <v>44144</v>
       </c>
       <c r="B1798" t="n">
-        <v>8.19</v>
+        <v>6.77</v>
       </c>
       <c r="C1798" t="n">
-        <v>9.6</v>
+        <v>6.92</v>
       </c>
       <c r="D1798" t="n">
-        <v>7.82</v>
+        <v>6.46</v>
       </c>
       <c r="E1798" t="n">
-        <v>9.19</v>
+        <v>6.68</v>
       </c>
       <c r="F1798" t="n">
-        <v>9.19</v>
+        <v>6.68</v>
       </c>
       <c r="G1798" t="n">
-        <v>73443561</v>
+        <v>7899300</v>
       </c>
     </row>
     <row r="1799">
       <c r="A1799" s="2" t="n">
-        <v>43873</v>
+        <v>44145</v>
       </c>
       <c r="B1799" t="n">
-        <v>3.4</v>
+        <v>6.72</v>
       </c>
       <c r="C1799" t="n">
-        <v>3.48</v>
+        <v>6.89</v>
       </c>
       <c r="D1799" t="n">
-        <v>3.4</v>
+        <v>6.53</v>
       </c>
       <c r="E1799" t="n">
-        <v>3.47</v>
+        <v>6.68</v>
       </c>
       <c r="F1799" t="n">
-        <v>3.47</v>
+        <v>6.68</v>
       </c>
       <c r="G1799" t="n">
-        <v>85900</v>
+        <v>5903100</v>
       </c>
     </row>
     <row r="1800">
       <c r="A1800" s="2" t="n">
-        <v>43874</v>
+        <v>44146</v>
       </c>
       <c r="B1800" t="n">
-        <v>3.45</v>
+        <v>6.53</v>
       </c>
       <c r="C1800" t="n">
-        <v>3.55</v>
+        <v>6.76</v>
       </c>
       <c r="D1800" t="n">
-        <v>3.4</v>
+        <v>6.36</v>
       </c>
       <c r="E1800" t="n">
-        <v>3.53</v>
+        <v>6.63</v>
       </c>
       <c r="F1800" t="n">
-        <v>3.53</v>
+        <v>6.63</v>
       </c>
       <c r="G1800" t="n">
-        <v>195100</v>
+        <v>4950700</v>
       </c>
     </row>
     <row r="1801">
       <c r="A1801" s="2" t="n">
-        <v>43875</v>
+        <v>44147</v>
       </c>
       <c r="B1801" t="n">
-        <v>3.54</v>
+        <v>6.48</v>
       </c>
       <c r="C1801" t="n">
-        <v>3.6</v>
+        <v>7.08</v>
       </c>
       <c r="D1801" t="n">
-        <v>3.46</v>
+        <v>6.46</v>
       </c>
       <c r="E1801" t="n">
-        <v>3.6</v>
+        <v>6.73</v>
       </c>
       <c r="F1801" t="n">
-        <v>3.6</v>
+        <v>6.73</v>
       </c>
       <c r="G1801" t="n">
-        <v>216100</v>
+        <v>6455700</v>
       </c>
     </row>
     <row r="1802">
       <c r="A1802" s="2" t="n">
-        <v>43879</v>
+        <v>44148</v>
       </c>
       <c r="B1802" t="n">
-        <v>3.55</v>
+        <v>6.8</v>
       </c>
       <c r="C1802" t="n">
-        <v>3.6</v>
+        <v>7.15</v>
       </c>
       <c r="D1802" t="n">
-        <v>3.47</v>
+        <v>6.71</v>
       </c>
       <c r="E1802" t="n">
-        <v>3.57</v>
+        <v>6.71</v>
       </c>
       <c r="F1802" t="n">
-        <v>3.57</v>
+        <v>6.71</v>
       </c>
       <c r="G1802" t="n">
-        <v>165700</v>
+        <v>6302300</v>
       </c>
     </row>
     <row r="1803">
       <c r="A1803" s="2" t="n">
-        <v>43880</v>
+        <v>44151</v>
       </c>
       <c r="B1803" t="n">
-        <v>3.6</v>
+        <v>6.72</v>
       </c>
       <c r="C1803" t="n">
-        <v>3.65</v>
+        <v>6.96</v>
       </c>
       <c r="D1803" t="n">
-        <v>3.51</v>
+        <v>6.62</v>
       </c>
       <c r="E1803" t="n">
-        <v>3.6</v>
+        <v>6.88</v>
       </c>
       <c r="F1803" t="n">
-        <v>3.6</v>
+        <v>6.88</v>
       </c>
       <c r="G1803" t="n">
-        <v>99300</v>
+        <v>4412200</v>
       </c>
     </row>
     <row r="1804">
       <c r="A1804" s="2" t="n">
-        <v>43881</v>
+        <v>44152</v>
       </c>
       <c r="B1804" t="n">
-        <v>3.51</v>
+        <v>6.79</v>
       </c>
       <c r="C1804" t="n">
-        <v>3.6</v>
+        <v>7.66</v>
       </c>
       <c r="D1804" t="n">
-        <v>3.43</v>
+        <v>6.79</v>
       </c>
       <c r="E1804" t="n">
-        <v>3.58</v>
+        <v>7.23</v>
       </c>
       <c r="F1804" t="n">
-        <v>3.58</v>
+        <v>7.23</v>
       </c>
       <c r="G1804" t="n">
-        <v>212500</v>
+        <v>9336900</v>
       </c>
     </row>
     <row r="1805">
       <c r="A1805" s="2" t="n">
-        <v>43882</v>
+        <v>44153</v>
       </c>
       <c r="B1805" t="n">
-        <v>3.54</v>
+        <v>7.36</v>
       </c>
       <c r="C1805" t="n">
-        <v>3.56</v>
+        <v>7.55</v>
       </c>
       <c r="D1805" t="n">
-        <v>3.43</v>
+        <v>7.08</v>
       </c>
       <c r="E1805" t="n">
-        <v>3.49</v>
+        <v>7.1</v>
       </c>
       <c r="F1805" t="n">
-        <v>3.49</v>
+        <v>7.1</v>
       </c>
       <c r="G1805" t="n">
-        <v>122700</v>
+        <v>4423000</v>
       </c>
     </row>
     <row r="1806">
       <c r="A1806" s="2" t="n">
-        <v>43885</v>
+        <v>44154</v>
       </c>
       <c r="B1806" t="n">
-        <v>3.31</v>
+        <v>7.08</v>
       </c>
       <c r="C1806" t="n">
-        <v>3.35</v>
+        <v>7.57</v>
       </c>
       <c r="D1806" t="n">
-        <v>3.17</v>
+        <v>7.05</v>
       </c>
       <c r="E1806" t="n">
-        <v>3.23</v>
+        <v>7.49</v>
       </c>
       <c r="F1806" t="n">
-        <v>3.23</v>
+        <v>7.49</v>
       </c>
       <c r="G1806" t="n">
-        <v>328300</v>
+        <v>4344500</v>
       </c>
     </row>
     <row r="1807">
       <c r="A1807" s="2" t="n">
-        <v>43886</v>
+        <v>44155</v>
       </c>
       <c r="B1807" t="n">
-        <v>3.23</v>
+        <v>7.4</v>
       </c>
       <c r="C1807" t="n">
-        <v>3.28</v>
+        <v>7.43</v>
       </c>
       <c r="D1807" t="n">
-        <v>3.2</v>
+        <v>7.16</v>
       </c>
       <c r="E1807" t="n">
-        <v>3.22</v>
+        <v>7.21</v>
       </c>
       <c r="F1807" t="n">
-        <v>3.22</v>
+        <v>7.21</v>
       </c>
       <c r="G1807" t="n">
-        <v>275800</v>
+        <v>3840400</v>
       </c>
     </row>
     <row r="1808">
       <c r="A1808" s="2" t="n">
-        <v>43887</v>
+        <v>44158</v>
       </c>
       <c r="B1808" t="n">
-        <v>3.2</v>
+        <v>7.29</v>
       </c>
       <c r="C1808" t="n">
-        <v>3.32</v>
+        <v>7.33</v>
       </c>
       <c r="D1808" t="n">
-        <v>3.08</v>
+        <v>6.95</v>
       </c>
       <c r="E1808" t="n">
-        <v>3.13</v>
+        <v>7.23</v>
       </c>
       <c r="F1808" t="n">
-        <v>3.13</v>
+        <v>7.23</v>
       </c>
       <c r="G1808" t="n">
-        <v>180700</v>
+        <v>5552500</v>
       </c>
     </row>
     <row r="1809">
       <c r="A1809" s="2" t="n">
-        <v>43888</v>
+        <v>44159</v>
       </c>
       <c r="B1809" t="n">
-        <v>3.06</v>
+        <v>7.2</v>
       </c>
       <c r="C1809" t="n">
-        <v>3.18</v>
+        <v>7.22</v>
       </c>
       <c r="D1809" t="n">
-        <v>3.02</v>
+        <v>6.83</v>
       </c>
       <c r="E1809" t="n">
-        <v>3.04</v>
+        <v>6.97</v>
       </c>
       <c r="F1809" t="n">
-        <v>3.04</v>
+        <v>6.97</v>
       </c>
       <c r="G1809" t="n">
-        <v>204500</v>
+        <v>4640700</v>
       </c>
     </row>
     <row r="1810">
       <c r="A1810" s="2" t="n">
-        <v>43889</v>
+        <v>44160</v>
       </c>
       <c r="B1810" t="n">
-        <v>2.88</v>
+        <v>6.9</v>
       </c>
       <c r="C1810" t="n">
-        <v>3.13</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D1810" t="n">
-        <v>2.87</v>
+        <v>6.84</v>
       </c>
       <c r="E1810" t="n">
-        <v>3.11</v>
+        <v>7.96</v>
       </c>
       <c r="F1810" t="n">
-        <v>3.11</v>
+        <v>7.96</v>
       </c>
       <c r="G1810" t="n">
-        <v>251300</v>
+        <v>26067100</v>
       </c>
     </row>
     <row r="1811">
       <c r="A1811" s="2" t="n">
-        <v>43892</v>
+        <v>44162</v>
       </c>
       <c r="B1811" t="n">
-        <v>3.11</v>
+        <v>8.15</v>
       </c>
       <c r="C1811" t="n">
-        <v>3.2</v>
+        <v>8.16</v>
       </c>
       <c r="D1811" t="n">
-        <v>3.02</v>
+        <v>7.35</v>
       </c>
       <c r="E1811" t="n">
-        <v>3.15</v>
+        <v>7.46</v>
       </c>
       <c r="F1811" t="n">
-        <v>3.15</v>
+        <v>7.46</v>
       </c>
       <c r="G1811" t="n">
-        <v>165200</v>
+        <v>6080900</v>
       </c>
     </row>
     <row r="1812">
       <c r="A1812" s="2" t="n">
-        <v>43893</v>
+        <v>44165</v>
       </c>
       <c r="B1812" t="n">
-        <v>3.14</v>
+        <v>7.5</v>
       </c>
       <c r="C1812" t="n">
-        <v>3.14</v>
+        <v>7.93</v>
       </c>
       <c r="D1812" t="n">
-        <v>2.87</v>
+        <v>7.33</v>
       </c>
       <c r="E1812" t="n">
-        <v>2.94</v>
+        <v>7.63</v>
       </c>
       <c r="F1812" t="n">
-        <v>2.94</v>
+        <v>7.63</v>
       </c>
       <c r="G1812" t="n">
-        <v>146900</v>
+        <v>7203700</v>
       </c>
     </row>
     <row r="1813">
       <c r="A1813" s="2" t="n">
-        <v>43894</v>
+        <v>44166</v>
       </c>
       <c r="B1813" t="n">
-        <v>3.05</v>
+        <v>7.65</v>
       </c>
       <c r="C1813" t="n">
-        <v>3.05</v>
+        <v>7.7</v>
       </c>
       <c r="D1813" t="n">
-        <v>2.91</v>
+        <v>7.12</v>
       </c>
       <c r="E1813" t="n">
-        <v>2.95</v>
+        <v>7.22</v>
       </c>
       <c r="F1813" t="n">
-        <v>2.95</v>
+        <v>7.22</v>
       </c>
       <c r="G1813" t="n">
-        <v>75900</v>
+        <v>5108500</v>
       </c>
     </row>
     <row r="1814">
       <c r="A1814" s="2" t="n">
-        <v>43895</v>
+        <v>44167</v>
       </c>
       <c r="B1814" t="n">
-        <v>2.89</v>
+        <v>7.15</v>
       </c>
       <c r="C1814" t="n">
-        <v>2.93</v>
+        <v>7.8</v>
       </c>
       <c r="D1814" t="n">
-        <v>2.53</v>
+        <v>6.91</v>
       </c>
       <c r="E1814" t="n">
-        <v>2.6</v>
+        <v>7.25</v>
       </c>
       <c r="F1814" t="n">
-        <v>2.6</v>
+        <v>7.25</v>
       </c>
       <c r="G1814" t="n">
-        <v>251900</v>
+        <v>5438900</v>
       </c>
     </row>
     <row r="1815">
       <c r="A1815" s="2" t="n">
-        <v>43896</v>
+        <v>44168</v>
       </c>
       <c r="B1815" t="n">
-        <v>2.6</v>
+        <v>7.3</v>
       </c>
       <c r="C1815" t="n">
-        <v>2.69</v>
+        <v>7.42</v>
       </c>
       <c r="D1815" t="n">
-        <v>2.6</v>
+        <v>7.13</v>
       </c>
       <c r="E1815" t="n">
-        <v>2.61</v>
+        <v>7.23</v>
       </c>
       <c r="F1815" t="n">
-        <v>2.61</v>
+        <v>7.23</v>
       </c>
       <c r="G1815" t="n">
-        <v>203300</v>
+        <v>2846700</v>
       </c>
     </row>
     <row r="1816">
       <c r="A1816" s="2" t="n">
-        <v>43899</v>
+        <v>44169</v>
       </c>
       <c r="B1816" t="n">
-        <v>2.4</v>
+        <v>7.29</v>
       </c>
       <c r="C1816" t="n">
-        <v>2.44</v>
+        <v>7.65</v>
       </c>
       <c r="D1816" t="n">
-        <v>2.18</v>
+        <v>7.23</v>
       </c>
       <c r="E1816" t="n">
-        <v>2.27</v>
+        <v>7.53</v>
       </c>
       <c r="F1816" t="n">
-        <v>2.27</v>
+        <v>7.53</v>
       </c>
       <c r="G1816" t="n">
-        <v>348700</v>
+        <v>3978300</v>
       </c>
     </row>
     <row r="1817">
       <c r="A1817" s="2" t="n">
-        <v>43900</v>
+        <v>44172</v>
       </c>
       <c r="B1817" t="n">
-        <v>2.48</v>
+        <v>12.57</v>
       </c>
       <c r="C1817" t="n">
-        <v>2.5</v>
+        <v>14.18</v>
       </c>
       <c r="D1817" t="n">
-        <v>2.4</v>
+        <v>11.12</v>
       </c>
       <c r="E1817" t="n">
-        <v>2.46</v>
+        <v>12.04</v>
       </c>
       <c r="F1817" t="n">
-        <v>2.46</v>
+        <v>12.04</v>
       </c>
       <c r="G1817" t="n">
-        <v>307400</v>
+        <v>134886000</v>
       </c>
     </row>
     <row r="1818">
       <c r="A1818" s="2" t="n">
-        <v>43901</v>
+        <v>44173</v>
       </c>
       <c r="B1818" t="n">
-        <v>2.35</v>
+        <v>13.13</v>
       </c>
       <c r="C1818" t="n">
-        <v>2.39</v>
+        <v>13.25</v>
       </c>
       <c r="D1818" t="n">
-        <v>2.25</v>
+        <v>10.95</v>
       </c>
       <c r="E1818" t="n">
-        <v>2.33</v>
+        <v>11.15</v>
       </c>
       <c r="F1818" t="n">
-        <v>2.33</v>
+        <v>11.15</v>
       </c>
       <c r="G1818" t="n">
-        <v>226300</v>
+        <v>28934800</v>
       </c>
     </row>
     <row r="1819">
       <c r="A1819" s="2" t="n">
-        <v>43902</v>
+        <v>44174</v>
       </c>
       <c r="B1819" t="n">
-        <v>2.18</v>
+        <v>10.7</v>
       </c>
       <c r="C1819" t="n">
-        <v>2.2</v>
+        <v>10.73</v>
       </c>
       <c r="D1819" t="n">
-        <v>2</v>
+        <v>9.49</v>
       </c>
       <c r="E1819" t="n">
-        <v>2.04</v>
+        <v>9.66</v>
       </c>
       <c r="F1819" t="n">
-        <v>2.04</v>
+        <v>9.66</v>
       </c>
       <c r="G1819" t="n">
-        <v>270900</v>
+        <v>18264400</v>
       </c>
     </row>
     <row r="1820">
       <c r="A1820" s="2" t="n">
-        <v>43903</v>
+        <v>44175</v>
       </c>
       <c r="B1820" t="n">
-        <v>2.19</v>
+        <v>10</v>
       </c>
       <c r="C1820" t="n">
-        <v>2.19</v>
+        <v>10.5</v>
       </c>
       <c r="D1820" t="n">
-        <v>1.87</v>
+        <v>9.77</v>
       </c>
       <c r="E1820" t="n">
-        <v>2.01</v>
+        <v>10</v>
       </c>
       <c r="F1820" t="n">
-        <v>2.01</v>
+        <v>10</v>
       </c>
       <c r="G1820" t="n">
-        <v>293800</v>
+        <v>9824300</v>
       </c>
     </row>
     <row r="1821">
       <c r="A1821" s="2" t="n">
-        <v>43906</v>
+        <v>44176</v>
       </c>
       <c r="B1821" t="n">
-        <v>2</v>
+        <v>9.9</v>
       </c>
       <c r="C1821" t="n">
-        <v>2</v>
+        <v>10.12</v>
       </c>
       <c r="D1821" t="n">
-        <v>1.74</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="E1821" t="n">
-        <v>1.89</v>
+        <v>10.1</v>
       </c>
       <c r="F1821" t="n">
-        <v>1.89</v>
+        <v>10.1</v>
       </c>
       <c r="G1821" t="n">
-        <v>416100</v>
+        <v>6551500</v>
       </c>
     </row>
     <row r="1822">
       <c r="A1822" s="2" t="n">
-        <v>43907</v>
+        <v>44179</v>
       </c>
       <c r="B1822" t="n">
-        <v>1.81</v>
+        <v>9.84</v>
       </c>
       <c r="C1822" t="n">
-        <v>1.99</v>
+        <v>10.17</v>
       </c>
       <c r="D1822" t="n">
-        <v>1.7</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="E1822" t="n">
-        <v>1.78</v>
+        <v>9.69</v>
       </c>
       <c r="F1822" t="n">
-        <v>1.78</v>
+        <v>9.69</v>
       </c>
       <c r="G1822" t="n">
-        <v>378200</v>
+        <v>3932000</v>
       </c>
     </row>
     <row r="1823">
       <c r="A1823" s="2" t="n">
-        <v>43908</v>
+        <v>44180</v>
       </c>
       <c r="B1823" t="n">
-        <v>1.73</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C1823" t="n">
-        <v>2</v>
+        <v>9.75</v>
       </c>
       <c r="D1823" t="n">
-        <v>1.55</v>
+        <v>9.23</v>
       </c>
       <c r="E1823" t="n">
-        <v>1.59</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F1823" t="n">
-        <v>1.59</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="G1823" t="n">
-        <v>552800</v>
+        <v>4245000</v>
       </c>
     </row>
     <row r="1824">
       <c r="A1824" s="2" t="n">
-        <v>43909</v>
+        <v>44181</v>
       </c>
       <c r="B1824" t="n">
-        <v>1.62</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C1824" t="n">
-        <v>1.79</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D1824" t="n">
-        <v>1.62</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="E1824" t="n">
-        <v>1.67</v>
+        <v>9.34</v>
       </c>
       <c r="F1824" t="n">
-        <v>1.67</v>
+        <v>9.34</v>
       </c>
       <c r="G1824" t="n">
-        <v>473300</v>
+        <v>4049900</v>
       </c>
     </row>
     <row r="1825">
       <c r="A1825" s="2" t="n">
-        <v>43910</v>
+        <v>44182</v>
       </c>
       <c r="B1825" t="n">
-        <v>1.71</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="C1825" t="n">
-        <v>2</v>
+        <v>10.3</v>
       </c>
       <c r="D1825" t="n">
-        <v>1.59</v>
+        <v>9.19</v>
       </c>
       <c r="E1825" t="n">
-        <v>1.59</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="F1825" t="n">
-        <v>1.59</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="G1825" t="n">
-        <v>583100</v>
+        <v>8456600</v>
       </c>
     </row>
     <row r="1826">
       <c r="A1826" s="2" t="n">
-        <v>43913</v>
+        <v>44183</v>
       </c>
       <c r="B1826" t="n">
-        <v>1.61</v>
+        <v>9.76</v>
       </c>
       <c r="C1826" t="n">
-        <v>1.68</v>
+        <v>9.99</v>
       </c>
       <c r="D1826" t="n">
-        <v>1.5</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="E1826" t="n">
-        <v>1.55</v>
+        <v>9.59</v>
       </c>
       <c r="F1826" t="n">
-        <v>1.55</v>
+        <v>9.59</v>
       </c>
       <c r="G1826" t="n">
-        <v>375700</v>
+        <v>4096000</v>
       </c>
     </row>
     <row r="1827">
       <c r="A1827" s="2" t="n">
-        <v>43914</v>
+        <v>44186</v>
       </c>
       <c r="B1827" t="n">
-        <v>1.68</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="C1827" t="n">
-        <v>1.85</v>
+        <v>9.82</v>
       </c>
       <c r="D1827" t="n">
-        <v>1.68</v>
+        <v>9.26</v>
       </c>
       <c r="E1827" t="n">
-        <v>1.7</v>
+        <v>9.43</v>
       </c>
       <c r="F1827" t="n">
-        <v>1.7</v>
+        <v>9.43</v>
       </c>
       <c r="G1827" t="n">
-        <v>388500</v>
+        <v>3678400</v>
       </c>
     </row>
     <row r="1828">
       <c r="A1828" s="2" t="n">
-        <v>43915</v>
+        <v>44187</v>
       </c>
       <c r="B1828" t="n">
-        <v>1.85</v>
+        <v>9.43</v>
       </c>
       <c r="C1828" t="n">
-        <v>1.98</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D1828" t="n">
-        <v>1.79</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E1828" t="n">
-        <v>1.83</v>
+        <v>9.52</v>
       </c>
       <c r="F1828" t="n">
-        <v>1.83</v>
+        <v>9.52</v>
       </c>
       <c r="G1828" t="n">
-        <v>582100</v>
+        <v>3432900</v>
       </c>
     </row>
     <row r="1829">
       <c r="A1829" s="2" t="n">
-        <v>43916</v>
+        <v>44188</v>
       </c>
       <c r="B1829" t="n">
-        <v>1.81</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="C1829" t="n">
-        <v>1.91</v>
+        <v>9.5</v>
       </c>
       <c r="D1829" t="n">
-        <v>1.77</v>
+        <v>9.23</v>
       </c>
       <c r="E1829" t="n">
-        <v>1.82</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="F1829" t="n">
-        <v>1.82</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="G1829" t="n">
-        <v>478300</v>
+        <v>2968200</v>
       </c>
     </row>
     <row r="1830">
       <c r="A1830" s="2" t="n">
-        <v>43917</v>
+        <v>44189</v>
       </c>
       <c r="B1830" t="n">
-        <v>1.8</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="C1830" t="n">
-        <v>1.81</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="D1830" t="n">
-        <v>1.67</v>
+        <v>8.66</v>
       </c>
       <c r="E1830" t="n">
-        <v>1.7</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="F1830" t="n">
-        <v>1.7</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="G1830" t="n">
-        <v>207300</v>
+        <v>4192000</v>
       </c>
     </row>
     <row r="1831">
       <c r="A1831" s="2" t="n">
-        <v>43920</v>
+        <v>44193</v>
       </c>
       <c r="B1831" t="n">
-        <v>1.76</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C1831" t="n">
-        <v>1.8</v>
+        <v>8.83</v>
       </c>
       <c r="D1831" t="n">
-        <v>1.73</v>
+        <v>8.15</v>
       </c>
       <c r="E1831" t="n">
-        <v>1.73</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="F1831" t="n">
-        <v>1.73</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="G1831" t="n">
-        <v>222700</v>
+        <v>6775700</v>
       </c>
     </row>
     <row r="1832">
       <c r="A1832" s="2" t="n">
-        <v>43921</v>
+        <v>44194</v>
       </c>
       <c r="B1832" t="n">
-        <v>1.85</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C1832" t="n">
-        <v>1.85</v>
+        <v>8.67</v>
       </c>
       <c r="D1832" t="n">
-        <v>1.69</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E1832" t="n">
-        <v>1.73</v>
+        <v>8.27</v>
       </c>
       <c r="F1832" t="n">
-        <v>1.73</v>
+        <v>8.27</v>
       </c>
       <c r="G1832" t="n">
-        <v>212400</v>
+        <v>6260100</v>
       </c>
     </row>
     <row r="1833">
       <c r="A1833" s="2" t="n">
-        <v>43922</v>
+        <v>44195</v>
       </c>
       <c r="B1833" t="n">
-        <v>1.62</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C1833" t="n">
-        <v>1.74</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="D1833" t="n">
-        <v>1.61</v>
+        <v>8.17</v>
       </c>
       <c r="E1833" t="n">
-        <v>1.65</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="F1833" t="n">
-        <v>1.65</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="G1833" t="n">
-        <v>145100</v>
+        <v>4085700</v>
       </c>
     </row>
     <row r="1834">
       <c r="A1834" s="2" t="n">
-        <v>43923</v>
+        <v>44196</v>
       </c>
       <c r="B1834" t="n">
-        <v>1.61</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="C1834" t="n">
-        <v>1.77</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="D1834" t="n">
-        <v>1.6</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="E1834" t="n">
-        <v>1.67</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F1834" t="n">
-        <v>1.67</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="G1834" t="n">
-        <v>315800</v>
+        <v>3959400</v>
       </c>
     </row>
     <row r="1835">
       <c r="A1835" s="2" t="n">
-        <v>43924</v>
+        <v>44200</v>
       </c>
       <c r="B1835" t="n">
-        <v>1.67</v>
+        <v>8.19</v>
       </c>
       <c r="C1835" t="n">
-        <v>1.69</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="D1835" t="n">
-        <v>1.57</v>
+        <v>7.85</v>
       </c>
       <c r="E1835" t="n">
-        <v>1.6</v>
+        <v>8.17</v>
       </c>
       <c r="F1835" t="n">
-        <v>1.6</v>
+        <v>8.17</v>
       </c>
       <c r="G1835" t="n">
-        <v>171400</v>
+        <v>3977400</v>
       </c>
     </row>
     <row r="1836">
       <c r="A1836" s="2" t="n">
-        <v>43927</v>
+        <v>44201</v>
       </c>
       <c r="B1836" t="n">
-        <v>1.67</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="C1836" t="n">
-        <v>1.78</v>
+        <v>8.35</v>
       </c>
       <c r="D1836" t="n">
-        <v>1.65</v>
+        <v>8.06</v>
       </c>
       <c r="E1836" t="n">
-        <v>1.75</v>
+        <v>8.26</v>
       </c>
       <c r="F1836" t="n">
-        <v>1.75</v>
+        <v>8.26</v>
       </c>
       <c r="G1836" t="n">
-        <v>310400</v>
+        <v>2679300</v>
       </c>
     </row>
     <row r="1837">
       <c r="A1837" s="2" t="n">
-        <v>43928</v>
+        <v>44202</v>
       </c>
       <c r="B1837" t="n">
-        <v>1.83</v>
+        <v>8.24</v>
       </c>
       <c r="C1837" t="n">
-        <v>1.9</v>
+        <v>8.6</v>
       </c>
       <c r="D1837" t="n">
-        <v>1.74</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="E1837" t="n">
-        <v>1.81</v>
+        <v>8.16</v>
       </c>
       <c r="F1837" t="n">
-        <v>1.81</v>
+        <v>8.16</v>
       </c>
       <c r="G1837" t="n">
-        <v>268700</v>
+        <v>4142700</v>
       </c>
     </row>
     <row r="1838">
       <c r="A1838" s="2" t="n">
-        <v>43929</v>
+        <v>44203</v>
       </c>
       <c r="B1838" t="n">
-        <v>1.84</v>
+        <v>8.24</v>
       </c>
       <c r="C1838" t="n">
-        <v>2</v>
+        <v>8.85</v>
       </c>
       <c r="D1838" t="n">
-        <v>1.81</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E1838" t="n">
-        <v>1.99</v>
+        <v>8.59</v>
       </c>
       <c r="F1838" t="n">
-        <v>1.99</v>
+        <v>8.59</v>
       </c>
       <c r="G1838" t="n">
-        <v>234000</v>
+        <v>5395900</v>
       </c>
     </row>
     <row r="1839">
       <c r="A1839" s="2" t="n">
-        <v>43930</v>
+        <v>44204</v>
       </c>
       <c r="B1839" t="n">
-        <v>2.03</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="C1839" t="n">
-        <v>2.18</v>
+        <v>8.67</v>
       </c>
       <c r="D1839" t="n">
-        <v>2.03</v>
+        <v>8.15</v>
       </c>
       <c r="E1839" t="n">
-        <v>2.16</v>
+        <v>8.4</v>
       </c>
       <c r="F1839" t="n">
-        <v>2.16</v>
+        <v>8.4</v>
       </c>
       <c r="G1839" t="n">
-        <v>265500</v>
+        <v>6920200</v>
       </c>
     </row>
     <row r="1840">
       <c r="A1840" s="2" t="n">
-        <v>43934</v>
+        <v>44207</v>
       </c>
       <c r="B1840" t="n">
-        <v>2.2</v>
+        <v>8.19</v>
       </c>
       <c r="C1840" t="n">
-        <v>2.2</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="D1840" t="n">
-        <v>2.08</v>
+        <v>8.02</v>
       </c>
       <c r="E1840" t="n">
-        <v>2.17</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="F1840" t="n">
-        <v>2.17</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="G1840" t="n">
-        <v>99400</v>
+        <v>4926300</v>
       </c>
     </row>
     <row r="1841">
       <c r="A1841" s="2" t="n">
-        <v>43935</v>
+        <v>44208</v>
       </c>
       <c r="B1841" t="n">
-        <v>2.2</v>
+        <v>8.1</v>
       </c>
       <c r="C1841" t="n">
-        <v>2.41</v>
+        <v>8.17</v>
       </c>
       <c r="D1841" t="n">
-        <v>2.14</v>
+        <v>7.88</v>
       </c>
       <c r="E1841" t="n">
-        <v>2.22</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F1841" t="n">
-        <v>2.22</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="G1841" t="n">
-        <v>208500</v>
+        <v>4073200</v>
       </c>
     </row>
     <row r="1842">
       <c r="A1842" s="2" t="n">
-        <v>43936</v>
+        <v>44209</v>
       </c>
       <c r="B1842" t="n">
-        <v>2.23</v>
+        <v>7.99</v>
       </c>
       <c r="C1842" t="n">
-        <v>2.23</v>
+        <v>8</v>
       </c>
       <c r="D1842" t="n">
-        <v>2.01</v>
+        <v>7.82</v>
       </c>
       <c r="E1842" t="n">
-        <v>2.12</v>
+        <v>7.99</v>
       </c>
       <c r="F1842" t="n">
-        <v>2.12</v>
+        <v>7.99</v>
       </c>
       <c r="G1842" t="n">
-        <v>128000</v>
+        <v>3644100</v>
       </c>
     </row>
     <row r="1843">
       <c r="A1843" s="2" t="n">
-        <v>43937</v>
+        <v>44210</v>
       </c>
       <c r="B1843" t="n">
-        <v>2.15</v>
+        <v>7.94</v>
       </c>
       <c r="C1843" t="n">
-        <v>2.16</v>
+        <v>8.91</v>
       </c>
       <c r="D1843" t="n">
-        <v>2.07</v>
+        <v>7.85</v>
       </c>
       <c r="E1843" t="n">
-        <v>2.12</v>
+        <v>8.33</v>
       </c>
       <c r="F1843" t="n">
-        <v>2.12</v>
+        <v>8.33</v>
       </c>
       <c r="G1843" t="n">
-        <v>73400</v>
+        <v>8530500</v>
       </c>
     </row>
     <row r="1844">
       <c r="A1844" s="2" t="n">
-        <v>43938</v>
+        <v>44211</v>
       </c>
       <c r="B1844" t="n">
-        <v>2.21</v>
+        <v>8.33</v>
       </c>
       <c r="C1844" t="n">
-        <v>2.21</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="D1844" t="n">
-        <v>2.09</v>
+        <v>8.02</v>
       </c>
       <c r="E1844" t="n">
-        <v>2.14</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F1844" t="n">
-        <v>2.14</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="G1844" t="n">
-        <v>82900</v>
+        <v>3071700</v>
       </c>
     </row>
     <row r="1845">
       <c r="A1845" s="2" t="n">
-        <v>43941</v>
+        <v>44215</v>
       </c>
       <c r="B1845" t="n">
-        <v>2.14</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C1845" t="n">
-        <v>2.15</v>
+        <v>9.35</v>
       </c>
       <c r="D1845" t="n">
-        <v>2.04</v>
+        <v>8.1</v>
       </c>
       <c r="E1845" t="n">
-        <v>2.05</v>
+        <v>8.84</v>
       </c>
       <c r="F1845" t="n">
-        <v>2.05</v>
+        <v>8.84</v>
       </c>
       <c r="G1845" t="n">
-        <v>135700</v>
+        <v>11016600</v>
       </c>
     </row>
     <row r="1846">
       <c r="A1846" s="2" t="n">
-        <v>43942</v>
+        <v>44216</v>
       </c>
       <c r="B1846" t="n">
-        <v>2.07</v>
+        <v>9</v>
       </c>
       <c r="C1846" t="n">
-        <v>2.08</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="D1846" t="n">
-        <v>1.91</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="E1846" t="n">
-        <v>1.96</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="F1846" t="n">
-        <v>1.96</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="G1846" t="n">
-        <v>184100</v>
+        <v>7941500</v>
       </c>
     </row>
     <row r="1847">
       <c r="A1847" s="2" t="n">
-        <v>43943</v>
+        <v>44217</v>
       </c>
       <c r="B1847" t="n">
-        <v>1.99</v>
+        <v>9.25</v>
       </c>
       <c r="C1847" t="n">
-        <v>2.01</v>
+        <v>9.6</v>
       </c>
       <c r="D1847" t="n">
-        <v>1.94</v>
+        <v>8.83</v>
       </c>
       <c r="E1847" t="n">
-        <v>1.97</v>
+        <v>9.19</v>
       </c>
       <c r="F1847" t="n">
-        <v>1.97</v>
+        <v>9.19</v>
       </c>
       <c r="G1847" t="n">
-        <v>105900</v>
+        <v>7156600</v>
       </c>
     </row>
     <row r="1848">
       <c r="A1848" s="2" t="n">
-        <v>43944</v>
+        <v>44218</v>
       </c>
       <c r="B1848" t="n">
-        <v>1.98</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="C1848" t="n">
-        <v>2.07</v>
+        <v>9.77</v>
       </c>
       <c r="D1848" t="n">
-        <v>1.95</v>
+        <v>8.91</v>
       </c>
       <c r="E1848" t="n">
-        <v>2</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="F1848" t="n">
-        <v>2</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="G1848" t="n">
-        <v>248900</v>
+        <v>9546900</v>
       </c>
     </row>
     <row r="1849">
       <c r="A1849" s="2" t="n">
-        <v>43945</v>
+        <v>44221</v>
       </c>
       <c r="B1849" t="n">
-        <v>2</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="C1849" t="n">
-        <v>2.29</v>
+        <v>10.32</v>
       </c>
       <c r="D1849" t="n">
-        <v>1.96</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E1849" t="n">
-        <v>2.22</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F1849" t="n">
-        <v>2.22</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="G1849" t="n">
-        <v>464000</v>
+        <v>10821200</v>
       </c>
     </row>
     <row r="1850">
       <c r="A1850" s="2" t="n">
-        <v>43948</v>
+        <v>44222</v>
       </c>
       <c r="B1850" t="n">
-        <v>2.25</v>
+        <v>9.57</v>
       </c>
       <c r="C1850" t="n">
-        <v>2.29</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D1850" t="n">
-        <v>2.1</v>
+        <v>9.23</v>
       </c>
       <c r="E1850" t="n">
-        <v>2.16</v>
+        <v>9.43</v>
       </c>
       <c r="F1850" t="n">
-        <v>2.16</v>
+        <v>9.43</v>
       </c>
       <c r="G1850" t="n">
-        <v>211100</v>
+        <v>7540000</v>
       </c>
     </row>
     <row r="1851">
       <c r="A1851" s="2" t="n">
-        <v>43949</v>
+        <v>44223</v>
       </c>
       <c r="B1851" t="n">
-        <v>2.14</v>
+        <v>12.72</v>
       </c>
       <c r="C1851" t="n">
-        <v>2.3</v>
+        <v>13.99</v>
       </c>
       <c r="D1851" t="n">
-        <v>2.14</v>
+        <v>10.71</v>
       </c>
       <c r="E1851" t="n">
-        <v>2.29</v>
+        <v>12.08</v>
       </c>
       <c r="F1851" t="n">
-        <v>2.29</v>
+        <v>12.08</v>
       </c>
       <c r="G1851" t="n">
-        <v>115200</v>
+        <v>47906400</v>
       </c>
     </row>
     <row r="1852">
       <c r="A1852" s="2" t="n">
-        <v>43950</v>
+        <v>44224</v>
       </c>
       <c r="B1852" t="n">
-        <v>2.3</v>
+        <v>11.5</v>
       </c>
       <c r="C1852" t="n">
-        <v>2.61</v>
+        <v>11.64</v>
       </c>
       <c r="D1852" t="n">
-        <v>2.3</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E1852" t="n">
-        <v>2.45</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="F1852" t="n">
-        <v>2.45</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="G1852" t="n">
-        <v>349900</v>
+        <v>16196700</v>
       </c>
     </row>
     <row r="1853">
       <c r="A1853" s="2" t="n">
-        <v>43951</v>
+        <v>44225</v>
       </c>
       <c r="B1853" t="n">
-        <v>2.4</v>
+        <v>10.2</v>
       </c>
       <c r="C1853" t="n">
-        <v>2.4</v>
+        <v>10.55</v>
       </c>
       <c r="D1853" t="n">
-        <v>2.2</v>
+        <v>9.49</v>
       </c>
       <c r="E1853" t="n">
-        <v>2.25</v>
+        <v>9.59</v>
       </c>
       <c r="F1853" t="n">
-        <v>2.25</v>
+        <v>9.59</v>
       </c>
       <c r="G1853" t="n">
-        <v>234000</v>
+        <v>7684600</v>
       </c>
     </row>
     <row r="1854">
       <c r="A1854" s="2" t="n">
-        <v>43952</v>
+        <v>44228</v>
       </c>
       <c r="B1854" t="n">
-        <v>2.17</v>
+        <v>9.9</v>
       </c>
       <c r="C1854" t="n">
-        <v>2.24</v>
+        <v>10.2</v>
       </c>
       <c r="D1854" t="n">
-        <v>2.12</v>
+        <v>9.32</v>
       </c>
       <c r="E1854" t="n">
-        <v>2.2</v>
+        <v>10.02</v>
       </c>
       <c r="F1854" t="n">
-        <v>2.2</v>
+        <v>10.02</v>
       </c>
       <c r="G1854" t="n">
-        <v>104900</v>
+        <v>6601500</v>
       </c>
     </row>
     <row r="1855">
       <c r="A1855" s="2" t="n">
-        <v>43955</v>
+        <v>44229</v>
       </c>
       <c r="B1855" t="n">
-        <v>2.13</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="C1855" t="n">
-        <v>2.32</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="D1855" t="n">
-        <v>2.05</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="E1855" t="n">
-        <v>2.28</v>
+        <v>9.44</v>
       </c>
       <c r="F1855" t="n">
-        <v>2.28</v>
+        <v>9.44</v>
       </c>
       <c r="G1855" t="n">
-        <v>89200</v>
+        <v>5636100</v>
       </c>
     </row>
     <row r="1856">
       <c r="A1856" s="2" t="n">
-        <v>43956</v>
+        <v>44230</v>
       </c>
       <c r="B1856" t="n">
-        <v>2.3</v>
+        <v>9.44</v>
       </c>
       <c r="C1856" t="n">
-        <v>2.37</v>
+        <v>13.8</v>
       </c>
       <c r="D1856" t="n">
-        <v>2.1</v>
+        <v>9.35</v>
       </c>
       <c r="E1856" t="n">
-        <v>2.13</v>
+        <v>10.98</v>
       </c>
       <c r="F1856" t="n">
-        <v>2.13</v>
+        <v>10.98</v>
       </c>
       <c r="G1856" t="n">
-        <v>127400</v>
+        <v>43527400</v>
       </c>
     </row>
     <row r="1857">
       <c r="A1857" s="2" t="n">
-        <v>43957</v>
+        <v>44231</v>
       </c>
       <c r="B1857" t="n">
-        <v>2.19</v>
+        <v>10.37</v>
       </c>
       <c r="C1857" t="n">
-        <v>2.3</v>
+        <v>11.44</v>
       </c>
       <c r="D1857" t="n">
-        <v>1.97</v>
+        <v>10.17</v>
       </c>
       <c r="E1857" t="n">
-        <v>2.03</v>
+        <v>10.74</v>
       </c>
       <c r="F1857" t="n">
-        <v>2.03</v>
+        <v>10.74</v>
       </c>
       <c r="G1857" t="n">
-        <v>285300</v>
+        <v>12170400</v>
       </c>
     </row>
     <row r="1858">
       <c r="A1858" s="2" t="n">
-        <v>43958</v>
+        <v>44232</v>
       </c>
       <c r="B1858" t="n">
-        <v>2.17</v>
+        <v>10.75</v>
       </c>
       <c r="C1858" t="n">
-        <v>2.23</v>
+        <v>11.28</v>
       </c>
       <c r="D1858" t="n">
-        <v>2.03</v>
+        <v>10.47</v>
       </c>
       <c r="E1858" t="n">
-        <v>2.11</v>
+        <v>10.72</v>
       </c>
       <c r="F1858" t="n">
-        <v>2.11</v>
+        <v>10.72</v>
       </c>
       <c r="G1858" t="n">
-        <v>493700</v>
+        <v>5603400</v>
       </c>
     </row>
     <row r="1859">
       <c r="A1859" s="2" t="n">
-        <v>43959</v>
+        <v>44235</v>
       </c>
       <c r="B1859" t="n">
-        <v>2.13</v>
+        <v>10.85</v>
       </c>
       <c r="C1859" t="n">
-        <v>3.09</v>
+        <v>11.57</v>
       </c>
       <c r="D1859" t="n">
-        <v>2.13</v>
+        <v>10.72</v>
       </c>
       <c r="E1859" t="n">
-        <v>2.9</v>
+        <v>11.34</v>
       </c>
       <c r="F1859" t="n">
-        <v>2.9</v>
+        <v>11.34</v>
       </c>
       <c r="G1859" t="n">
-        <v>1770200</v>
+        <v>6616600</v>
       </c>
     </row>
     <row r="1860">
       <c r="A1860" s="2" t="n">
-        <v>43962</v>
+        <v>44236</v>
       </c>
       <c r="B1860" t="n">
-        <v>2.79</v>
+        <v>11.25</v>
       </c>
       <c r="C1860" t="n">
-        <v>3.01</v>
+        <v>12.39</v>
       </c>
       <c r="D1860" t="n">
-        <v>2.61</v>
+        <v>11.03</v>
       </c>
       <c r="E1860" t="n">
-        <v>2.67</v>
+        <v>11.89</v>
       </c>
       <c r="F1860" t="n">
-        <v>2.67</v>
+        <v>11.89</v>
       </c>
       <c r="G1860" t="n">
-        <v>477200</v>
+        <v>8279700</v>
       </c>
     </row>
     <row r="1861">
       <c r="A1861" s="2" t="n">
-        <v>43963</v>
+        <v>44237</v>
       </c>
       <c r="B1861" t="n">
-        <v>2.71</v>
+        <v>12.26</v>
       </c>
       <c r="C1861" t="n">
-        <v>2.87</v>
+        <v>12.5</v>
       </c>
       <c r="D1861" t="n">
-        <v>2.68</v>
+        <v>11.05</v>
       </c>
       <c r="E1861" t="n">
-        <v>2.69</v>
+        <v>11.42</v>
       </c>
       <c r="F1861" t="n">
-        <v>2.69</v>
+        <v>11.42</v>
       </c>
       <c r="G1861" t="n">
-        <v>259800</v>
+        <v>5766600</v>
       </c>
     </row>
     <row r="1862">
       <c r="A1862" s="2" t="n">
-        <v>43964</v>
+        <v>44238</v>
       </c>
       <c r="B1862" t="n">
-        <v>2.5</v>
+        <v>11.6</v>
       </c>
       <c r="C1862" t="n">
-        <v>2.59</v>
+        <v>11.82</v>
       </c>
       <c r="D1862" t="n">
-        <v>2.22</v>
+        <v>10.72</v>
       </c>
       <c r="E1862" t="n">
-        <v>2.3</v>
+        <v>11.15</v>
       </c>
       <c r="F1862" t="n">
-        <v>2.3</v>
+        <v>11.15</v>
       </c>
       <c r="G1862" t="n">
-        <v>344000</v>
+        <v>4502300</v>
       </c>
     </row>
     <row r="1863">
       <c r="A1863" s="2" t="n">
-        <v>43965</v>
+        <v>44239</v>
       </c>
       <c r="B1863" t="n">
-        <v>2.26</v>
+        <v>10.91</v>
       </c>
       <c r="C1863" t="n">
-        <v>2.64</v>
+        <v>11.14</v>
       </c>
       <c r="D1863" t="n">
-        <v>2.25</v>
+        <v>10.59</v>
       </c>
       <c r="E1863" t="n">
-        <v>2.59</v>
+        <v>10.78</v>
       </c>
       <c r="F1863" t="n">
-        <v>2.59</v>
+        <v>10.78</v>
       </c>
       <c r="G1863" t="n">
-        <v>282100</v>
+        <v>3697100</v>
       </c>
     </row>
     <row r="1864">
       <c r="A1864" s="2" t="n">
-        <v>43966</v>
+        <v>44243</v>
       </c>
       <c r="B1864" t="n">
-        <v>2.57</v>
+        <v>10.83</v>
       </c>
       <c r="C1864" t="n">
-        <v>2.59</v>
+        <v>10.96</v>
       </c>
       <c r="D1864" t="n">
-        <v>2.43</v>
+        <v>10.28</v>
       </c>
       <c r="E1864" t="n">
-        <v>2.46</v>
+        <v>10.3</v>
       </c>
       <c r="F1864" t="n">
-        <v>2.46</v>
+        <v>10.3</v>
       </c>
       <c r="G1864" t="n">
-        <v>209300</v>
+        <v>4191200</v>
       </c>
     </row>
     <row r="1865">
       <c r="A1865" s="2" t="n">
-        <v>43969</v>
+        <v>44244</v>
       </c>
       <c r="B1865" t="n">
-        <v>2.71</v>
+        <v>10.19</v>
       </c>
       <c r="C1865" t="n">
-        <v>2.75</v>
+        <v>10.26</v>
       </c>
       <c r="D1865" t="n">
-        <v>2.42</v>
+        <v>9.6</v>
       </c>
       <c r="E1865" t="n">
-        <v>2.44</v>
+        <v>9.93</v>
       </c>
       <c r="F1865" t="n">
-        <v>2.44</v>
+        <v>9.93</v>
       </c>
       <c r="G1865" t="n">
-        <v>279300</v>
+        <v>4883800</v>
       </c>
     </row>
     <row r="1866">
       <c r="A1866" s="2" t="n">
-        <v>43970</v>
+        <v>44245</v>
       </c>
       <c r="B1866" t="n">
-        <v>2.43</v>
+        <v>9.6</v>
       </c>
       <c r="C1866" t="n">
-        <v>2.8</v>
+        <v>10.17</v>
       </c>
       <c r="D1866" t="n">
-        <v>2.4</v>
+        <v>9.24</v>
       </c>
       <c r="E1866" t="n">
-        <v>2.73</v>
+        <v>9.41</v>
       </c>
       <c r="F1866" t="n">
-        <v>2.73</v>
+        <v>9.41</v>
       </c>
       <c r="G1866" t="n">
-        <v>560000</v>
+        <v>6957800</v>
       </c>
     </row>
     <row r="1867">
       <c r="A1867" s="2" t="n">
-        <v>43971</v>
+        <v>44246</v>
       </c>
       <c r="B1867" t="n">
-        <v>2.77</v>
+        <v>9.58</v>
       </c>
       <c r="C1867" t="n">
-        <v>2.97</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D1867" t="n">
-        <v>2.51</v>
+        <v>9.26</v>
       </c>
       <c r="E1867" t="n">
-        <v>2.57</v>
+        <v>9.34</v>
       </c>
       <c r="F1867" t="n">
-        <v>2.57</v>
+        <v>9.34</v>
       </c>
       <c r="G1867" t="n">
-        <v>559700</v>
+        <v>3231700</v>
       </c>
     </row>
     <row r="1868">
       <c r="A1868" s="2" t="n">
-        <v>43972</v>
+        <v>44249</v>
       </c>
       <c r="B1868" t="n">
-        <v>2.65</v>
+        <v>9.15</v>
       </c>
       <c r="C1868" t="n">
-        <v>2.72</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="D1868" t="n">
-        <v>2.56</v>
+        <v>9.02</v>
       </c>
       <c r="E1868" t="n">
-        <v>2.66</v>
+        <v>9.06</v>
       </c>
       <c r="F1868" t="n">
-        <v>2.66</v>
+        <v>9.06</v>
       </c>
       <c r="G1868" t="n">
-        <v>250300</v>
+        <v>3390900</v>
       </c>
     </row>
     <row r="1869">
       <c r="A1869" s="2" t="n">
-        <v>43973</v>
+        <v>44250</v>
       </c>
       <c r="B1869" t="n">
-        <v>2.69</v>
+        <v>8.92</v>
       </c>
       <c r="C1869" t="n">
-        <v>2.73</v>
+        <v>8.98</v>
       </c>
       <c r="D1869" t="n">
-        <v>2.54</v>
+        <v>8.1</v>
       </c>
       <c r="E1869" t="n">
-        <v>2.72</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F1869" t="n">
-        <v>2.72</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G1869" t="n">
-        <v>196600</v>
+        <v>7923800</v>
       </c>
     </row>
     <row r="1870">
       <c r="A1870" s="2" t="n">
-        <v>43977</v>
+        <v>44251</v>
       </c>
       <c r="B1870" t="n">
-        <v>2.72</v>
+        <v>8.81</v>
       </c>
       <c r="C1870" t="n">
-        <v>2.85</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D1870" t="n">
-        <v>2.67</v>
+        <v>8.66</v>
       </c>
       <c r="E1870" t="n">
-        <v>2.73</v>
+        <v>9.09</v>
       </c>
       <c r="F1870" t="n">
-        <v>2.73</v>
+        <v>9.09</v>
       </c>
       <c r="G1870" t="n">
-        <v>152600</v>
+        <v>7481400</v>
       </c>
     </row>
     <row r="1871">
       <c r="A1871" s="2" t="n">
-        <v>43978</v>
+        <v>44252</v>
       </c>
       <c r="B1871" t="n">
-        <v>2.54</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="C1871" t="n">
-        <v>2.74</v>
+        <v>9.44</v>
       </c>
       <c r="D1871" t="n">
-        <v>2.52</v>
+        <v>8.66</v>
       </c>
       <c r="E1871" t="n">
-        <v>2.71</v>
+        <v>8.82</v>
       </c>
       <c r="F1871" t="n">
-        <v>2.71</v>
+        <v>8.82</v>
       </c>
       <c r="G1871" t="n">
-        <v>177400</v>
+        <v>5120800</v>
       </c>
     </row>
     <row r="1872">
       <c r="A1872" s="2" t="n">
-        <v>43979</v>
+        <v>44253</v>
       </c>
       <c r="B1872" t="n">
-        <v>2.63</v>
+        <v>8.84</v>
       </c>
       <c r="C1872" t="n">
-        <v>2.68</v>
+        <v>9.07</v>
       </c>
       <c r="D1872" t="n">
-        <v>2.52</v>
+        <v>8.4</v>
       </c>
       <c r="E1872" t="n">
-        <v>2.53</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="F1872" t="n">
-        <v>2.53</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="G1872" t="n">
-        <v>114700</v>
+        <v>3480000</v>
       </c>
     </row>
     <row r="1873">
       <c r="A1873" s="2" t="n">
-        <v>43980</v>
+        <v>44256</v>
       </c>
       <c r="B1873" t="n">
-        <v>2.52</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="C1873" t="n">
-        <v>2.69</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="D1873" t="n">
-        <v>2.47</v>
+        <v>8.66</v>
       </c>
       <c r="E1873" t="n">
-        <v>2.48</v>
+        <v>9.15</v>
       </c>
       <c r="F1873" t="n">
-        <v>2.48</v>
+        <v>9.15</v>
       </c>
       <c r="G1873" t="n">
-        <v>256800</v>
+        <v>5887100</v>
       </c>
     </row>
     <row r="1874">
       <c r="A1874" s="2" t="n">
-        <v>43983</v>
+        <v>44257</v>
       </c>
       <c r="B1874" t="n">
-        <v>2.48</v>
+        <v>9.1</v>
       </c>
       <c r="C1874" t="n">
-        <v>2.68</v>
+        <v>9.81</v>
       </c>
       <c r="D1874" t="n">
-        <v>2.48</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E1874" t="n">
-        <v>2.61</v>
+        <v>9.17</v>
       </c>
       <c r="F1874" t="n">
-        <v>2.61</v>
+        <v>9.17</v>
       </c>
       <c r="G1874" t="n">
-        <v>212700</v>
+        <v>4769700</v>
       </c>
     </row>
     <row r="1875">
       <c r="A1875" s="2" t="n">
-        <v>43984</v>
+        <v>44258</v>
       </c>
       <c r="B1875" t="n">
-        <v>2.6</v>
+        <v>9.19</v>
       </c>
       <c r="C1875" t="n">
-        <v>2.72</v>
+        <v>9.4</v>
       </c>
       <c r="D1875" t="n">
-        <v>2.53</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="E1875" t="n">
-        <v>2.67</v>
+        <v>8.51</v>
       </c>
       <c r="F1875" t="n">
-        <v>2.67</v>
+        <v>8.51</v>
       </c>
       <c r="G1875" t="n">
-        <v>295200</v>
+        <v>4458300</v>
       </c>
     </row>
     <row r="1876">
       <c r="A1876" s="2" t="n">
-        <v>43985</v>
+        <v>44259</v>
       </c>
       <c r="B1876" t="n">
-        <v>2.61</v>
+        <v>8.5</v>
       </c>
       <c r="C1876" t="n">
-        <v>2.66</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="D1876" t="n">
-        <v>2.55</v>
+        <v>7.57</v>
       </c>
       <c r="E1876" t="n">
-        <v>2.59</v>
+        <v>8.07</v>
       </c>
       <c r="F1876" t="n">
-        <v>2.59</v>
+        <v>8.07</v>
       </c>
       <c r="G1876" t="n">
-        <v>222000</v>
+        <v>6414800</v>
       </c>
     </row>
     <row r="1877">
       <c r="A1877" s="2" t="n">
-        <v>43986</v>
+        <v>44260</v>
       </c>
       <c r="B1877" t="n">
-        <v>2.56</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="C1877" t="n">
-        <v>2.7</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="D1877" t="n">
-        <v>2.5</v>
+        <v>6.92</v>
       </c>
       <c r="E1877" t="n">
-        <v>2.61</v>
+        <v>7.6</v>
       </c>
       <c r="F1877" t="n">
-        <v>2.61</v>
+        <v>7.6</v>
       </c>
       <c r="G1877" t="n">
-        <v>422000</v>
+        <v>5678500</v>
       </c>
     </row>
     <row r="1878">
       <c r="A1878" s="2" t="n">
-        <v>43987</v>
+        <v>44263</v>
       </c>
       <c r="B1878" t="n">
-        <v>2.6</v>
+        <v>7.66</v>
       </c>
       <c r="C1878" t="n">
-        <v>2.82</v>
+        <v>7.86</v>
       </c>
       <c r="D1878" t="n">
-        <v>2.59</v>
+        <v>7.4</v>
       </c>
       <c r="E1878" t="n">
-        <v>2.72</v>
+        <v>7.62</v>
       </c>
       <c r="F1878" t="n">
-        <v>2.72</v>
+        <v>7.62</v>
       </c>
       <c r="G1878" t="n">
-        <v>427500</v>
+        <v>3384400</v>
       </c>
     </row>
     <row r="1879">
       <c r="A1879" s="2" t="n">
-        <v>43990</v>
+        <v>44264</v>
       </c>
       <c r="B1879" t="n">
-        <v>2.72</v>
+        <v>7.92</v>
       </c>
       <c r="C1879" t="n">
-        <v>2.78</v>
+        <v>9.09</v>
       </c>
       <c r="D1879" t="n">
-        <v>2.56</v>
+        <v>7.81</v>
       </c>
       <c r="E1879" t="n">
-        <v>2.64</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="F1879" t="n">
-        <v>2.64</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="G1879" t="n">
-        <v>557900</v>
+        <v>10502700</v>
       </c>
     </row>
     <row r="1880">
       <c r="A1880" s="2" t="n">
-        <v>43991</v>
+        <v>44265</v>
       </c>
       <c r="B1880" t="n">
-        <v>2.6</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="C1880" t="n">
-        <v>2.75</v>
+        <v>9.75</v>
       </c>
       <c r="D1880" t="n">
-        <v>2.57</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="E1880" t="n">
-        <v>2.67</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F1880" t="n">
-        <v>2.67</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G1880" t="n">
-        <v>228200</v>
+        <v>11076200</v>
       </c>
     </row>
     <row r="1881">
       <c r="A1881" s="2" t="n">
-        <v>43992</v>
+        <v>44266</v>
       </c>
       <c r="B1881" t="n">
-        <v>2.67</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C1881" t="n">
-        <v>2.9</v>
+        <v>10.12</v>
       </c>
       <c r="D1881" t="n">
-        <v>2.66</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="E1881" t="n">
-        <v>2.75</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="F1881" t="n">
-        <v>2.75</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="G1881" t="n">
-        <v>511900</v>
+        <v>10095900</v>
       </c>
     </row>
     <row r="1882">
       <c r="A1882" s="2" t="n">
-        <v>43993</v>
+        <v>44267</v>
       </c>
       <c r="B1882" t="n">
-        <v>2.61</v>
+        <v>9.24</v>
       </c>
       <c r="C1882" t="n">
-        <v>2.72</v>
+        <v>10.04</v>
       </c>
       <c r="D1882" t="n">
-        <v>2.41</v>
+        <v>9.08</v>
       </c>
       <c r="E1882" t="n">
-        <v>2.45</v>
+        <v>9.77</v>
       </c>
       <c r="F1882" t="n">
-        <v>2.45</v>
+        <v>9.77</v>
       </c>
       <c r="G1882" t="n">
-        <v>415400</v>
+        <v>5914200</v>
       </c>
     </row>
     <row r="1883">
       <c r="A1883" s="2" t="n">
-        <v>43994</v>
+        <v>44270</v>
       </c>
       <c r="B1883" t="n">
-        <v>2.5</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="C1883" t="n">
-        <v>2.63</v>
+        <v>10.54</v>
       </c>
       <c r="D1883" t="n">
-        <v>2.4</v>
+        <v>9.33</v>
       </c>
       <c r="E1883" t="n">
-        <v>2.45</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="F1883" t="n">
-        <v>2.45</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="G1883" t="n">
-        <v>173000</v>
+        <v>8694100</v>
       </c>
     </row>
     <row r="1884">
       <c r="A1884" s="2" t="n">
-        <v>43997</v>
+        <v>44271</v>
       </c>
       <c r="B1884" t="n">
-        <v>2.4</v>
+        <v>9.57</v>
       </c>
       <c r="C1884" t="n">
-        <v>2.46</v>
+        <v>9.65</v>
       </c>
       <c r="D1884" t="n">
-        <v>2.35</v>
+        <v>8.8901</v>
       </c>
       <c r="E1884" t="n">
-        <v>2.42</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="F1884" t="n">
-        <v>2.42</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="G1884" t="n">
-        <v>248800</v>
-      </c>
-    </row>
-    <row r="1885">
-      <c r="A1885" s="2" t="n">
-        <v>43998</v>
-      </c>
-      <c r="B1885" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="C1885" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="D1885" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="E1885" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="F1885" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="G1885" t="n">
-        <v>139200</v>
-      </c>
-    </row>
-    <row r="1886">
-      <c r="A1886" s="2" t="n">
-        <v>43999</v>
-      </c>
-      <c r="B1886" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="C1886" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="D1886" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="E1886" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="F1886" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="G1886" t="n">
-        <v>164900</v>
-      </c>
-    </row>
-    <row r="1887">
-      <c r="A1887" s="2" t="n">
-        <v>44000</v>
-      </c>
-      <c r="B1887" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="C1887" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="D1887" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E1887" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F1887" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="G1887" t="n">
-        <v>235300</v>
-      </c>
-    </row>
-    <row r="1888">
-      <c r="A1888" s="2" t="n">
-        <v>44001</v>
-      </c>
-      <c r="B1888" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="C1888" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="D1888" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="E1888" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="F1888" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="G1888" t="n">
-        <v>192600</v>
-      </c>
-    </row>
-    <row r="1889">
-      <c r="A1889" s="2" t="n">
-        <v>44004</v>
-      </c>
-      <c r="B1889" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="C1889" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="D1889" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="E1889" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="F1889" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="G1889" t="n">
-        <v>166600</v>
-      </c>
-    </row>
-    <row r="1890">
-      <c r="A1890" s="2" t="n">
-        <v>44005</v>
-      </c>
-      <c r="B1890" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="C1890" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="D1890" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="E1890" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F1890" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="G1890" t="n">
-        <v>350100</v>
-      </c>
-    </row>
-    <row r="1891">
-      <c r="A1891" s="2" t="n">
-        <v>44006</v>
-      </c>
-      <c r="B1891" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="C1891" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="D1891" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="E1891" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="F1891" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="G1891" t="n">
-        <v>258000</v>
-      </c>
-    </row>
-    <row r="1892">
-      <c r="A1892" s="2" t="n">
-        <v>44007</v>
-      </c>
-      <c r="B1892" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="C1892" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="D1892" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="E1892" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="F1892" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="G1892" t="n">
-        <v>501400</v>
-      </c>
-    </row>
-    <row r="1893">
-      <c r="A1893" s="2" t="n">
-        <v>44008</v>
-      </c>
-      <c r="B1893" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="C1893" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="D1893" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="E1893" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F1893" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G1893" t="n">
-        <v>1971900</v>
-      </c>
-    </row>
-    <row r="1894">
-      <c r="A1894" s="2" t="n">
-        <v>44011</v>
-      </c>
-      <c r="B1894" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="C1894" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="D1894" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E1894" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="F1894" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="G1894" t="n">
-        <v>135800</v>
-      </c>
-    </row>
-    <row r="1895">
-      <c r="A1895" s="2" t="n">
-        <v>44012</v>
-      </c>
-      <c r="B1895" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="C1895" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="D1895" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="E1895" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="F1895" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="G1895" t="n">
-        <v>116700</v>
-      </c>
-    </row>
-    <row r="1896">
-      <c r="A1896" s="2" t="n">
-        <v>44013</v>
-      </c>
-      <c r="B1896" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="C1896" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="D1896" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="E1896" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F1896" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="G1896" t="n">
-        <v>159200</v>
-      </c>
-    </row>
-    <row r="1897">
-      <c r="A1897" s="2" t="n">
-        <v>44014</v>
-      </c>
-      <c r="B1897" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="C1897" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="D1897" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="E1897" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="F1897" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="G1897" t="n">
-        <v>210400</v>
-      </c>
-    </row>
-    <row r="1898">
-      <c r="A1898" s="2" t="n">
-        <v>44018</v>
-      </c>
-      <c r="B1898" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="C1898" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="D1898" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E1898" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="F1898" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="G1898" t="n">
-        <v>156100</v>
-      </c>
-    </row>
-    <row r="1899">
-      <c r="A1899" s="2" t="n">
-        <v>44019</v>
-      </c>
-      <c r="B1899" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="C1899" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="D1899" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="E1899" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="F1899" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="G1899" t="n">
-        <v>175200</v>
-      </c>
-    </row>
-    <row r="1900">
-      <c r="A1900" s="2" t="n">
-        <v>44020</v>
-      </c>
-      <c r="B1900" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="C1900" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="D1900" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="E1900" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="F1900" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G1900" t="n">
-        <v>199700</v>
-      </c>
-    </row>
-    <row r="1901">
-      <c r="A1901" s="2" t="n">
-        <v>44021</v>
-      </c>
-      <c r="B1901" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="C1901" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="D1901" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="E1901" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="F1901" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="G1901" t="n">
-        <v>145400</v>
-      </c>
-    </row>
-    <row r="1902">
-      <c r="A1902" s="2" t="n">
-        <v>44022</v>
-      </c>
-      <c r="B1902" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="C1902" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="D1902" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="E1902" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F1902" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G1902" t="n">
-        <v>114900</v>
-      </c>
-    </row>
-    <row r="1903">
-      <c r="A1903" s="2" t="n">
-        <v>44025</v>
-      </c>
-      <c r="B1903" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="C1903" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="D1903" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="E1903" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="F1903" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="G1903" t="n">
-        <v>118400</v>
-      </c>
-    </row>
-    <row r="1904">
-      <c r="A1904" s="2" t="n">
-        <v>44026</v>
-      </c>
-      <c r="B1904" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="C1904" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="D1904" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1904" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="F1904" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="G1904" t="n">
-        <v>138100</v>
-      </c>
-    </row>
-    <row r="1905">
-      <c r="A1905" s="2" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B1905" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="C1905" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="D1905" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="E1905" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="F1905" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="G1905" t="n">
-        <v>134500</v>
-      </c>
-    </row>
-    <row r="1906">
-      <c r="A1906" s="2" t="n">
-        <v>44028</v>
-      </c>
-      <c r="B1906" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="C1906" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="D1906" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="E1906" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="F1906" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="G1906" t="n">
-        <v>76800</v>
-      </c>
-    </row>
-    <row r="1907">
-      <c r="A1907" s="2" t="n">
-        <v>44029</v>
-      </c>
-      <c r="B1907" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="C1907" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="D1907" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="E1907" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="F1907" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="G1907" t="n">
-        <v>215000</v>
-      </c>
-    </row>
-    <row r="1908">
-      <c r="A1908" s="2" t="n">
-        <v>44032</v>
-      </c>
-      <c r="B1908" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="C1908" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="D1908" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="E1908" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F1908" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="G1908" t="n">
-        <v>117200</v>
-      </c>
-    </row>
-    <row r="1909">
-      <c r="A1909" s="2" t="n">
-        <v>44033</v>
-      </c>
-      <c r="B1909" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="C1909" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="D1909" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="E1909" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F1909" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G1909" t="n">
-        <v>107200</v>
-      </c>
-    </row>
-    <row r="1910">
-      <c r="A1910" s="2" t="n">
-        <v>44034</v>
-      </c>
-      <c r="B1910" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="C1910" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="D1910" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="E1910" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="F1910" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="G1910" t="n">
-        <v>52400</v>
-      </c>
-    </row>
-    <row r="1911">
-      <c r="A1911" s="2" t="n">
-        <v>44035</v>
-      </c>
-      <c r="B1911" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="C1911" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="D1911" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="E1911" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F1911" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G1911" t="n">
-        <v>80800</v>
-      </c>
-    </row>
-    <row r="1912">
-      <c r="A1912" s="2" t="n">
-        <v>44036</v>
-      </c>
-      <c r="B1912" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="C1912" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="D1912" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="E1912" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F1912" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G1912" t="n">
-        <v>74900</v>
-      </c>
-    </row>
-    <row r="1913">
-      <c r="A1913" s="2" t="n">
-        <v>44039</v>
-      </c>
-      <c r="B1913" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="C1913" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="D1913" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="E1913" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="F1913" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="G1913" t="n">
-        <v>1645700</v>
-      </c>
-    </row>
-    <row r="1914">
-      <c r="A1914" s="2" t="n">
-        <v>44040</v>
-      </c>
-      <c r="B1914" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="C1914" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D1914" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="E1914" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="F1914" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="G1914" t="n">
-        <v>284666800</v>
-      </c>
-    </row>
-    <row r="1915">
-      <c r="A1915" s="2" t="n">
-        <v>44041</v>
-      </c>
-      <c r="B1915" t="n">
-        <v>18.43</v>
-      </c>
-      <c r="C1915" t="n">
-        <v>60</v>
-      </c>
-      <c r="D1915" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="E1915" t="n">
-        <v>33.200001</v>
-      </c>
-      <c r="F1915" t="n">
-        <v>33.200001</v>
-      </c>
-      <c r="G1915" t="n">
-        <v>276020100</v>
-      </c>
-    </row>
-    <row r="1916">
-      <c r="A1916" s="2" t="n">
-        <v>44042</v>
-      </c>
-      <c r="B1916" t="n">
-        <v>43.580002</v>
-      </c>
-      <c r="C1916" t="n">
-        <v>44.439999</v>
-      </c>
-      <c r="D1916" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E1916" t="n">
-        <v>29.83</v>
-      </c>
-      <c r="F1916" t="n">
-        <v>29.83</v>
-      </c>
-      <c r="G1916" t="n">
-        <v>98747500</v>
-      </c>
-    </row>
-    <row r="1917">
-      <c r="A1917" s="2" t="n">
-        <v>44043</v>
-      </c>
-      <c r="B1917" t="n">
-        <v>25.02</v>
-      </c>
-      <c r="C1917" t="n">
-        <v>25.700001</v>
-      </c>
-      <c r="D1917" t="n">
-        <v>20.27</v>
-      </c>
-      <c r="E1917" t="n">
-        <v>21.85</v>
-      </c>
-      <c r="F1917" t="n">
-        <v>21.85</v>
-      </c>
-      <c r="G1917" t="n">
-        <v>57323800</v>
-      </c>
-    </row>
-    <row r="1918">
-      <c r="A1918" s="2" t="n">
-        <v>44046</v>
-      </c>
-      <c r="B1918" t="n">
-        <v>21.129999</v>
-      </c>
-      <c r="C1918" t="n">
-        <v>21.16</v>
-      </c>
-      <c r="D1918" t="n">
-        <v>14.74</v>
-      </c>
-      <c r="E1918" t="n">
-        <v>14.94</v>
-      </c>
-      <c r="F1918" t="n">
-        <v>14.94</v>
-      </c>
-      <c r="G1918" t="n">
-        <v>47189200</v>
-      </c>
-    </row>
-    <row r="1919">
-      <c r="A1919" s="2" t="n">
-        <v>44047</v>
-      </c>
-      <c r="B1919" t="n">
-        <v>15.08</v>
-      </c>
-      <c r="C1919" t="n">
-        <v>17.879999</v>
-      </c>
-      <c r="D1919" t="n">
-        <v>12.86</v>
-      </c>
-      <c r="E1919" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F1919" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="G1919" t="n">
-        <v>65895200</v>
-      </c>
-    </row>
-    <row r="1920">
-      <c r="A1920" s="2" t="n">
-        <v>44048</v>
-      </c>
-      <c r="B1920" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="C1920" t="n">
-        <v>16</v>
-      </c>
-      <c r="D1920" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="E1920" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F1920" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="G1920" t="n">
-        <v>25496800</v>
-      </c>
-    </row>
-    <row r="1921">
-      <c r="A1921" s="2" t="n">
-        <v>44049</v>
-      </c>
-      <c r="B1921" t="n">
-        <v>15.11</v>
-      </c>
-      <c r="C1921" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="D1921" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E1921" t="n">
-        <v>16.110001</v>
-      </c>
-      <c r="F1921" t="n">
-        <v>16.110001</v>
-      </c>
-      <c r="G1921" t="n">
-        <v>39493100</v>
-      </c>
-    </row>
-    <row r="1922">
-      <c r="A1922" s="2" t="n">
-        <v>44050</v>
-      </c>
-      <c r="B1922" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="C1922" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="D1922" t="n">
-        <v>14.57</v>
-      </c>
-      <c r="E1922" t="n">
-        <v>14.88</v>
-      </c>
-      <c r="F1922" t="n">
-        <v>14.88</v>
-      </c>
-      <c r="G1922" t="n">
-        <v>16139300</v>
-      </c>
-    </row>
-    <row r="1923">
-      <c r="A1923" s="2" t="n">
-        <v>44053</v>
-      </c>
-      <c r="B1923" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="C1923" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D1923" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="E1923" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="F1923" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="G1923" t="n">
-        <v>47435800</v>
-      </c>
-    </row>
-    <row r="1924">
-      <c r="A1924" s="2" t="n">
-        <v>44054</v>
-      </c>
-      <c r="B1924" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="C1924" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="D1924" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="E1924" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="F1924" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="G1924" t="n">
-        <v>19420200</v>
-      </c>
-    </row>
-    <row r="1925">
-      <c r="A1925" s="2" t="n">
-        <v>44055</v>
-      </c>
-      <c r="B1925" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="C1925" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="D1925" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="E1925" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="F1925" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="G1925" t="n">
-        <v>9499800</v>
-      </c>
-    </row>
-    <row r="1926">
-      <c r="A1926" s="2" t="n">
-        <v>44056</v>
-      </c>
-      <c r="B1926" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="C1926" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="D1926" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="E1926" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="F1926" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="G1926" t="n">
-        <v>8791200</v>
-      </c>
-    </row>
-    <row r="1927">
-      <c r="A1927" s="2" t="n">
-        <v>44057</v>
-      </c>
-      <c r="B1927" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="C1927" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="D1927" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="E1927" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="F1927" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="G1927" t="n">
-        <v>10571500</v>
-      </c>
-    </row>
-    <row r="1928">
-      <c r="A1928" s="2" t="n">
-        <v>44060</v>
-      </c>
-      <c r="B1928" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="C1928" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="D1928" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="E1928" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="F1928" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="G1928" t="n">
-        <v>9350300</v>
-      </c>
-    </row>
-    <row r="1929">
-      <c r="A1929" s="2" t="n">
-        <v>44061</v>
-      </c>
-      <c r="B1929" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="C1929" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="D1929" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="E1929" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="F1929" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="G1929" t="n">
-        <v>72777500</v>
-      </c>
-    </row>
-    <row r="1930">
-      <c r="A1930" s="2" t="n">
-        <v>44062</v>
-      </c>
-      <c r="B1930" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="C1930" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="D1930" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="E1930" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="F1930" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="G1930" t="n">
-        <v>32261500</v>
-      </c>
-    </row>
-    <row r="1931">
-      <c r="A1931" s="2" t="n">
-        <v>44063</v>
-      </c>
-      <c r="B1931" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="C1931" t="n">
-        <v>8</v>
-      </c>
-      <c r="D1931" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="E1931" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="F1931" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="G1931" t="n">
-        <v>13743900</v>
-      </c>
-    </row>
-    <row r="1932">
-      <c r="A1932" s="2" t="n">
-        <v>44064</v>
-      </c>
-      <c r="B1932" t="n">
-        <v>7</v>
-      </c>
-      <c r="C1932" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="D1932" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="E1932" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="F1932" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="G1932" t="n">
-        <v>26249300</v>
-      </c>
-    </row>
-    <row r="1933">
-      <c r="A1933" s="2" t="n">
-        <v>44067</v>
-      </c>
-      <c r="B1933" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="C1933" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="D1933" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E1933" t="n">
-        <v>7</v>
-      </c>
-      <c r="F1933" t="n">
-        <v>7</v>
-      </c>
-      <c r="G1933" t="n">
-        <v>13844200</v>
-      </c>
-    </row>
-    <row r="1934">
-      <c r="A1934" s="2" t="n">
-        <v>44068</v>
-      </c>
-      <c r="B1934" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="C1934" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="D1934" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="E1934" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="F1934" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="G1934" t="n">
-        <v>13970300</v>
-      </c>
-    </row>
-    <row r="1935">
-      <c r="A1935" s="2" t="n">
-        <v>44069</v>
-      </c>
-      <c r="B1935" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="C1935" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="D1935" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="E1935" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="F1935" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="G1935" t="n">
-        <v>11812300</v>
-      </c>
-    </row>
-    <row r="1936">
-      <c r="A1936" s="2" t="n">
-        <v>44070</v>
-      </c>
-      <c r="B1936" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="C1936" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="D1936" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="E1936" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="F1936" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="G1936" t="n">
-        <v>11650300</v>
-      </c>
-    </row>
-    <row r="1937">
-      <c r="A1937" s="2" t="n">
-        <v>44071</v>
-      </c>
-      <c r="B1937" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="C1937" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D1937" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="E1937" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="F1937" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="G1937" t="n">
-        <v>13991000</v>
-      </c>
-    </row>
-    <row r="1938">
-      <c r="A1938" s="2" t="n">
-        <v>44074</v>
-      </c>
-      <c r="B1938" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C1938" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="D1938" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="E1938" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="F1938" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="G1938" t="n">
-        <v>19151200</v>
-      </c>
-    </row>
-    <row r="1939">
-      <c r="A1939" s="2" t="n">
-        <v>44075</v>
-      </c>
-      <c r="B1939" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="C1939" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="D1939" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="E1939" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F1939" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="G1939" t="n">
-        <v>106239600</v>
-      </c>
-    </row>
-    <row r="1940">
-      <c r="A1940" s="2" t="n">
-        <v>44076</v>
-      </c>
-      <c r="B1940" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="C1940" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="D1940" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="E1940" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="F1940" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="G1940" t="n">
-        <v>19328700</v>
-      </c>
-    </row>
-    <row r="1941">
-      <c r="A1941" s="2" t="n">
-        <v>44077</v>
-      </c>
-      <c r="B1941" t="n">
-        <v>7</v>
-      </c>
-      <c r="C1941" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="D1941" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="E1941" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="F1941" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="G1941" t="n">
-        <v>13400800</v>
-      </c>
-    </row>
-    <row r="1942">
-      <c r="A1942" s="2" t="n">
-        <v>44078</v>
-      </c>
-      <c r="B1942" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="C1942" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D1942" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="E1942" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F1942" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="G1942" t="n">
-        <v>8801300</v>
-      </c>
-    </row>
-    <row r="1943">
-      <c r="A1943" s="2" t="n">
-        <v>44082</v>
-      </c>
-      <c r="B1943" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C1943" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D1943" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="E1943" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="F1943" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="G1943" t="n">
-        <v>9758100</v>
-      </c>
-    </row>
-    <row r="1944">
-      <c r="A1944" s="2" t="n">
-        <v>44083</v>
-      </c>
-      <c r="B1944" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="C1944" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="D1944" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="E1944" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="F1944" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="G1944" t="n">
-        <v>15551800</v>
-      </c>
-    </row>
-    <row r="1945">
-      <c r="A1945" s="2" t="n">
-        <v>44084</v>
-      </c>
-      <c r="B1945" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="C1945" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="D1945" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="E1945" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F1945" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="G1945" t="n">
-        <v>12752500</v>
-      </c>
-    </row>
-    <row r="1946">
-      <c r="A1946" s="2" t="n">
-        <v>44085</v>
-      </c>
-      <c r="B1946" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="C1946" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D1946" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E1946" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="F1946" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="G1946" t="n">
-        <v>20467800</v>
-      </c>
-    </row>
-    <row r="1947">
-      <c r="A1947" s="2" t="n">
-        <v>44088</v>
-      </c>
-      <c r="B1947" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="C1947" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="D1947" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="E1947" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F1947" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G1947" t="n">
-        <v>8882400</v>
-      </c>
-    </row>
-    <row r="1948">
-      <c r="A1948" s="2" t="n">
-        <v>44089</v>
-      </c>
-      <c r="B1948" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="C1948" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="D1948" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E1948" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="F1948" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="G1948" t="n">
-        <v>11014900</v>
-      </c>
-    </row>
-    <row r="1949">
-      <c r="A1949" s="2" t="n">
-        <v>44090</v>
-      </c>
-      <c r="B1949" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="C1949" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="D1949" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="E1949" t="n">
-        <v>8.51</v>
-      </c>
-      <c r="F1949" t="n">
-        <v>8.51</v>
-      </c>
-      <c r="G1949" t="n">
-        <v>187625500</v>
-      </c>
-    </row>
-    <row r="1950">
-      <c r="A1950" s="2" t="n">
-        <v>44091</v>
-      </c>
-      <c r="B1950" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="C1950" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="D1950" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E1950" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F1950" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="G1950" t="n">
-        <v>101916100</v>
-      </c>
-    </row>
-    <row r="1951">
-      <c r="A1951" s="2" t="n">
-        <v>44092</v>
-      </c>
-      <c r="B1951" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C1951" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="D1951" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="E1951" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="F1951" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="G1951" t="n">
-        <v>150084000</v>
-      </c>
-    </row>
-    <row r="1952">
-      <c r="A1952" s="2" t="n">
-        <v>44095</v>
-      </c>
-      <c r="B1952" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="C1952" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="D1952" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="E1952" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="F1952" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="G1952" t="n">
-        <v>43448600</v>
-      </c>
-    </row>
-    <row r="1953">
-      <c r="A1953" s="2" t="n">
-        <v>44096</v>
-      </c>
-      <c r="B1953" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="C1953" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="D1953" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="E1953" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="F1953" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="G1953" t="n">
-        <v>21649400</v>
-      </c>
-    </row>
-    <row r="1954">
-      <c r="A1954" s="2" t="n">
-        <v>44097</v>
-      </c>
-      <c r="B1954" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="C1954" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="D1954" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="E1954" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="F1954" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="G1954" t="n">
-        <v>17583700</v>
-      </c>
-    </row>
-    <row r="1955">
-      <c r="A1955" s="2" t="n">
-        <v>44098</v>
-      </c>
-      <c r="B1955" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="C1955" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="D1955" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="E1955" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="F1955" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="G1955" t="n">
-        <v>17876200</v>
-      </c>
-    </row>
-    <row r="1956">
-      <c r="A1956" s="2" t="n">
-        <v>44099</v>
-      </c>
-      <c r="B1956" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="C1956" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="D1956" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E1956" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="F1956" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="G1956" t="n">
-        <v>9916000</v>
-      </c>
-    </row>
-    <row r="1957">
-      <c r="A1957" s="2" t="n">
-        <v>44102</v>
-      </c>
-      <c r="B1957" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="C1957" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="D1957" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E1957" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="F1957" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="G1957" t="n">
-        <v>7260600</v>
-      </c>
-    </row>
-    <row r="1958">
-      <c r="A1958" s="2" t="n">
-        <v>44103</v>
-      </c>
-      <c r="B1958" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="C1958" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="D1958" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="E1958" t="n">
-        <v>9</v>
-      </c>
-      <c r="F1958" t="n">
-        <v>9</v>
-      </c>
-      <c r="G1958" t="n">
-        <v>5114200</v>
-      </c>
-    </row>
-    <row r="1959">
-      <c r="A1959" s="2" t="n">
-        <v>44104</v>
-      </c>
-      <c r="B1959" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="C1959" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="D1959" t="n">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="E1959" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="F1959" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="G1959" t="n">
-        <v>8557700</v>
-      </c>
-    </row>
-    <row r="1960">
-      <c r="A1960" s="2" t="n">
-        <v>44105</v>
-      </c>
-      <c r="B1960" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="C1960" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="D1960" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="E1960" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="F1960" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="G1960" t="n">
-        <v>6346700</v>
-      </c>
-    </row>
-    <row r="1961">
-      <c r="A1961" s="2" t="n">
-        <v>44106</v>
-      </c>
-      <c r="B1961" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="C1961" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="D1961" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="E1961" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="F1961" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="G1961" t="n">
-        <v>7798700</v>
-      </c>
-    </row>
-    <row r="1962">
-      <c r="A1962" s="2" t="n">
-        <v>44109</v>
-      </c>
-      <c r="B1962" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="C1962" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="D1962" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="E1962" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="F1962" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="G1962" t="n">
-        <v>10434500</v>
-      </c>
-    </row>
-    <row r="1963">
-      <c r="A1963" s="2" t="n">
-        <v>44110</v>
-      </c>
-      <c r="B1963" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="C1963" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="D1963" t="n">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="E1963" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="F1963" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="G1963" t="n">
-        <v>8445800</v>
-      </c>
-    </row>
-    <row r="1964">
-      <c r="A1964" s="2" t="n">
-        <v>44111</v>
-      </c>
-      <c r="B1964" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="C1964" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="D1964" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="E1964" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="F1964" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="G1964" t="n">
-        <v>6048400</v>
-      </c>
-    </row>
-    <row r="1965">
-      <c r="A1965" s="2" t="n">
-        <v>44112</v>
-      </c>
-      <c r="B1965" t="n">
-        <v>9</v>
-      </c>
-      <c r="C1965" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="D1965" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="E1965" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="F1965" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="G1965" t="n">
-        <v>4609900</v>
-      </c>
-    </row>
-    <row r="1966">
-      <c r="A1966" s="2" t="n">
-        <v>44113</v>
-      </c>
-      <c r="B1966" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="C1966" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="D1966" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="E1966" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="F1966" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="G1966" t="n">
-        <v>39465100</v>
-      </c>
-    </row>
-    <row r="1967">
-      <c r="A1967" s="2" t="n">
-        <v>44116</v>
-      </c>
-      <c r="B1967" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="C1967" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="D1967" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="E1967" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="F1967" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="G1967" t="n">
-        <v>11475200</v>
-      </c>
-    </row>
-    <row r="1968">
-      <c r="A1968" s="2" t="n">
-        <v>44117</v>
-      </c>
-      <c r="B1968" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="C1968" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="D1968" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="E1968" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="F1968" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="G1968" t="n">
-        <v>8605900</v>
-      </c>
-    </row>
-    <row r="1969">
-      <c r="A1969" s="2" t="n">
-        <v>44118</v>
-      </c>
-      <c r="B1969" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="C1969" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="D1969" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="E1969" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="F1969" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="G1969" t="n">
-        <v>5401800</v>
-      </c>
-    </row>
-    <row r="1970">
-      <c r="A1970" s="2" t="n">
-        <v>44119</v>
-      </c>
-      <c r="B1970" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="C1970" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="D1970" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="E1970" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="F1970" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="G1970" t="n">
-        <v>4983800</v>
-      </c>
-    </row>
-    <row r="1971">
-      <c r="A1971" s="2" t="n">
-        <v>44120</v>
-      </c>
-      <c r="B1971" t="n">
-        <v>9.41</v>
-      </c>
-      <c r="C1971" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="D1971" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="E1971" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="F1971" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="G1971" t="n">
-        <v>10662000</v>
-      </c>
-    </row>
-    <row r="1972">
-      <c r="A1972" s="2" t="n">
-        <v>44123</v>
-      </c>
-      <c r="B1972" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="C1972" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="D1972" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="E1972" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="F1972" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="G1972" t="n">
-        <v>15584600</v>
-      </c>
-    </row>
-    <row r="1973">
-      <c r="A1973" s="2" t="n">
-        <v>44124</v>
-      </c>
-      <c r="B1973" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="C1973" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="D1973" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="E1973" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="F1973" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="G1973" t="n">
-        <v>5953600</v>
-      </c>
-    </row>
-    <row r="1974">
-      <c r="A1974" s="2" t="n">
-        <v>44125</v>
-      </c>
-      <c r="B1974" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="C1974" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="D1974" t="n">
-        <v>8.66</v>
-      </c>
-      <c r="E1974" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F1974" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="G1974" t="n">
-        <v>5436800</v>
-      </c>
-    </row>
-    <row r="1975">
-      <c r="A1975" s="2" t="n">
-        <v>44126</v>
-      </c>
-      <c r="B1975" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="C1975" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="D1975" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="E1975" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="F1975" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="G1975" t="n">
-        <v>6888400</v>
-      </c>
-    </row>
-    <row r="1976">
-      <c r="A1976" s="2" t="n">
-        <v>44127</v>
-      </c>
-      <c r="B1976" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="C1976" t="n">
-        <v>8.66</v>
-      </c>
-      <c r="D1976" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="E1976" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="F1976" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="G1976" t="n">
-        <v>4162400</v>
-      </c>
-    </row>
-    <row r="1977">
-      <c r="A1977" s="2" t="n">
-        <v>44130</v>
-      </c>
-      <c r="B1977" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="C1977" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="D1977" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="E1977" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="F1977" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="G1977" t="n">
-        <v>7338100</v>
-      </c>
-    </row>
-    <row r="1978">
-      <c r="A1978" s="2" t="n">
-        <v>44131</v>
-      </c>
-      <c r="B1978" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="C1978" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="D1978" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="E1978" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="F1978" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="G1978" t="n">
-        <v>2936800</v>
-      </c>
-    </row>
-    <row r="1979">
-      <c r="A1979" s="2" t="n">
-        <v>44132</v>
-      </c>
-      <c r="B1979" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="C1979" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="D1979" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="E1979" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="F1979" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="G1979" t="n">
-        <v>6680000</v>
-      </c>
-    </row>
-    <row r="1980">
-      <c r="A1980" s="2" t="n">
-        <v>44133</v>
-      </c>
-      <c r="B1980" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="C1980" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="D1980" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="E1980" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="F1980" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="G1980" t="n">
-        <v>5628100</v>
-      </c>
-    </row>
-    <row r="1981">
-      <c r="A1981" s="2" t="n">
-        <v>44134</v>
-      </c>
-      <c r="B1981" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="C1981" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D1981" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="E1981" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="F1981" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="G1981" t="n">
-        <v>6399100</v>
-      </c>
-    </row>
-    <row r="1982">
-      <c r="A1982" s="2" t="n">
-        <v>44137</v>
-      </c>
-      <c r="B1982" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="C1982" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="D1982" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="E1982" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="F1982" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="G1982" t="n">
-        <v>3997800</v>
-      </c>
-    </row>
-    <row r="1983">
-      <c r="A1983" s="2" t="n">
-        <v>44138</v>
-      </c>
-      <c r="B1983" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="C1983" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="D1983" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="E1983" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="F1983" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="G1983" t="n">
-        <v>5098200</v>
-      </c>
-    </row>
-    <row r="1984">
-      <c r="A1984" s="2" t="n">
-        <v>44139</v>
-      </c>
-      <c r="B1984" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="C1984" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="D1984" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="E1984" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="F1984" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="G1984" t="n">
-        <v>7781900</v>
-      </c>
-    </row>
-    <row r="1985">
-      <c r="A1985" s="2" t="n">
-        <v>44140</v>
-      </c>
-      <c r="B1985" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="C1985" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="D1985" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="E1985" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F1985" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="G1985" t="n">
-        <v>3948900</v>
-      </c>
-    </row>
-    <row r="1986">
-      <c r="A1986" s="2" t="n">
-        <v>44141</v>
-      </c>
-      <c r="B1986" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="C1986" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="D1986" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="E1986" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="F1986" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="G1986" t="n">
-        <v>8246500</v>
-      </c>
-    </row>
-    <row r="1987">
-      <c r="A1987" s="2" t="n">
-        <v>44144</v>
-      </c>
-      <c r="B1987" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="C1987" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="D1987" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="E1987" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="F1987" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="G1987" t="n">
-        <v>7899300</v>
-      </c>
-    </row>
-    <row r="1988">
-      <c r="A1988" s="2" t="n">
-        <v>44145</v>
-      </c>
-      <c r="B1988" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="C1988" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="D1988" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="E1988" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="F1988" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="G1988" t="n">
-        <v>5903100</v>
-      </c>
-    </row>
-    <row r="1989">
-      <c r="A1989" s="2" t="n">
-        <v>44146</v>
-      </c>
-      <c r="B1989" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="C1989" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="D1989" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="E1989" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="F1989" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="G1989" t="n">
-        <v>4950700</v>
-      </c>
-    </row>
-    <row r="1990">
-      <c r="A1990" s="2" t="n">
-        <v>44147</v>
-      </c>
-      <c r="B1990" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="C1990" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="D1990" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="E1990" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="F1990" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="G1990" t="n">
-        <v>6455700</v>
-      </c>
-    </row>
-    <row r="1991">
-      <c r="A1991" s="2" t="n">
-        <v>44148</v>
-      </c>
-      <c r="B1991" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="C1991" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="D1991" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="E1991" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="F1991" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="G1991" t="n">
-        <v>6302300</v>
-      </c>
-    </row>
-    <row r="1992">
-      <c r="A1992" s="2" t="n">
-        <v>44151</v>
-      </c>
-      <c r="B1992" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="C1992" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="D1992" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="E1992" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="F1992" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="G1992" t="n">
-        <v>4412200</v>
-      </c>
-    </row>
-    <row r="1993">
-      <c r="A1993" s="2" t="n">
-        <v>44152</v>
-      </c>
-      <c r="B1993" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="C1993" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="D1993" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="E1993" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="F1993" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="G1993" t="n">
-        <v>9336900</v>
-      </c>
-    </row>
-    <row r="1994">
-      <c r="A1994" s="2" t="n">
-        <v>44153</v>
-      </c>
-      <c r="B1994" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="C1994" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="D1994" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="E1994" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="F1994" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="G1994" t="n">
-        <v>4423000</v>
-      </c>
-    </row>
-    <row r="1995">
-      <c r="A1995" s="2" t="n">
-        <v>44154</v>
-      </c>
-      <c r="B1995" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="C1995" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="D1995" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="E1995" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="F1995" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="G1995" t="n">
-        <v>4344500</v>
-      </c>
-    </row>
-    <row r="1996">
-      <c r="A1996" s="2" t="n">
-        <v>44155</v>
-      </c>
-      <c r="B1996" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="C1996" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="D1996" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="E1996" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="F1996" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="G1996" t="n">
-        <v>3840400</v>
-      </c>
-    </row>
-    <row r="1997">
-      <c r="A1997" s="2" t="n">
-        <v>44158</v>
-      </c>
-      <c r="B1997" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="C1997" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="D1997" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="E1997" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="F1997" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="G1997" t="n">
-        <v>5552500</v>
-      </c>
-    </row>
-    <row r="1998">
-      <c r="A1998" s="2" t="n">
-        <v>44159</v>
-      </c>
-      <c r="B1998" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="C1998" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="D1998" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="E1998" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="F1998" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="G1998" t="n">
-        <v>4640700</v>
-      </c>
-    </row>
-    <row r="1999">
-      <c r="A1999" s="2" t="n">
-        <v>44160</v>
-      </c>
-      <c r="B1999" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="C1999" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="D1999" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="E1999" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="F1999" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="G1999" t="n">
-        <v>26067100</v>
-      </c>
-    </row>
-    <row r="2000">
-      <c r="A2000" s="2" t="n">
-        <v>44162</v>
-      </c>
-      <c r="B2000" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="C2000" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="D2000" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="E2000" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="F2000" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="G2000" t="n">
-        <v>6080900</v>
-      </c>
-    </row>
-    <row r="2001">
-      <c r="A2001" s="2" t="n">
-        <v>44165</v>
-      </c>
-      <c r="B2001" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="C2001" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="D2001" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="E2001" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="F2001" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="G2001" t="n">
-        <v>7203700</v>
-      </c>
-    </row>
-    <row r="2002">
-      <c r="A2002" s="2" t="n">
-        <v>44166</v>
-      </c>
-      <c r="B2002" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="C2002" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="D2002" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="E2002" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="F2002" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="G2002" t="n">
-        <v>5108500</v>
-      </c>
-    </row>
-    <row r="2003">
-      <c r="A2003" s="2" t="n">
-        <v>44167</v>
-      </c>
-      <c r="B2003" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="C2003" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="D2003" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="E2003" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="F2003" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="G2003" t="n">
-        <v>5438900</v>
-      </c>
-    </row>
-    <row r="2004">
-      <c r="A2004" s="2" t="n">
-        <v>44168</v>
-      </c>
-      <c r="B2004" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="C2004" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="D2004" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="E2004" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="F2004" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="G2004" t="n">
-        <v>2846700</v>
-      </c>
-    </row>
-    <row r="2005">
-      <c r="A2005" s="2" t="n">
-        <v>44169</v>
-      </c>
-      <c r="B2005" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="C2005" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="D2005" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="E2005" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="F2005" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="G2005" t="n">
-        <v>3978300</v>
-      </c>
-    </row>
-    <row r="2006">
-      <c r="A2006" s="2" t="n">
-        <v>44172</v>
-      </c>
-      <c r="B2006" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="C2006" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="D2006" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="E2006" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="F2006" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="G2006" t="n">
-        <v>134886000</v>
-      </c>
-    </row>
-    <row r="2007">
-      <c r="A2007" s="2" t="n">
-        <v>44173</v>
-      </c>
-      <c r="B2007" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="C2007" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="D2007" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="E2007" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="F2007" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="G2007" t="n">
-        <v>28934800</v>
-      </c>
-    </row>
-    <row r="2008">
-      <c r="A2008" s="2" t="n">
-        <v>44174</v>
-      </c>
-      <c r="B2008" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C2008" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="D2008" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="E2008" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="F2008" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="G2008" t="n">
-        <v>18264400</v>
-      </c>
-    </row>
-    <row r="2009">
-      <c r="A2009" s="2" t="n">
-        <v>44175</v>
-      </c>
-      <c r="B2009" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2009" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="D2009" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="E2009" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2009" t="n">
-        <v>10</v>
-      </c>
-      <c r="G2009" t="n">
-        <v>9824300</v>
-      </c>
-    </row>
-    <row r="2010">
-      <c r="A2010" s="2" t="n">
-        <v>44176</v>
-      </c>
-      <c r="B2010" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="C2010" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="D2010" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="E2010" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="F2010" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="G2010" t="n">
-        <v>6551500</v>
-      </c>
-    </row>
-    <row r="2011">
-      <c r="A2011" s="2" t="n">
-        <v>44179</v>
-      </c>
-      <c r="B2011" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="C2011" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="D2011" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="E2011" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="F2011" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="G2011" t="n">
-        <v>3932000</v>
-      </c>
-    </row>
-    <row r="2012">
-      <c r="A2012" s="2" t="n">
-        <v>44180</v>
-      </c>
-      <c r="B2012" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="C2012" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="D2012" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="E2012" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="F2012" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="G2012" t="n">
-        <v>4245000</v>
-      </c>
-    </row>
-    <row r="2013">
-      <c r="A2013" s="2" t="n">
-        <v>44181</v>
-      </c>
-      <c r="B2013" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="C2013" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="D2013" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="E2013" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="F2013" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="G2013" t="n">
-        <v>4049900</v>
-      </c>
-    </row>
-    <row r="2014">
-      <c r="A2014" s="2" t="n">
-        <v>44182</v>
-      </c>
-      <c r="B2014" t="n">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="C2014" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="D2014" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="E2014" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="F2014" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="G2014" t="n">
-        <v>8456600</v>
-      </c>
-    </row>
-    <row r="2015">
-      <c r="A2015" s="2" t="n">
-        <v>44183</v>
-      </c>
-      <c r="B2015" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="C2015" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="D2015" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="E2015" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="F2015" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="G2015" t="n">
-        <v>4096000</v>
-      </c>
-    </row>
-    <row r="2016">
-      <c r="A2016" s="2" t="n">
-        <v>44186</v>
-      </c>
-      <c r="B2016" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="C2016" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="D2016" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="E2016" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="F2016" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="G2016" t="n">
-        <v>3678400</v>
-      </c>
-    </row>
-    <row r="2017">
-      <c r="A2017" s="2" t="n">
-        <v>44187</v>
-      </c>
-      <c r="B2017" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="C2017" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="D2017" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="E2017" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="F2017" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="G2017" t="n">
-        <v>3432900</v>
-      </c>
-    </row>
-    <row r="2018">
-      <c r="A2018" s="2" t="n">
-        <v>44188</v>
-      </c>
-      <c r="B2018" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="C2018" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D2018" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="E2018" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="F2018" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="G2018" t="n">
-        <v>2968200</v>
-      </c>
-    </row>
-    <row r="2019">
-      <c r="A2019" s="2" t="n">
-        <v>44189</v>
-      </c>
-      <c r="B2019" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="C2019" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="D2019" t="n">
-        <v>8.66</v>
-      </c>
-      <c r="E2019" t="n">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="F2019" t="n">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="G2019" t="n">
-        <v>4192000</v>
-      </c>
-    </row>
-    <row r="2020">
-      <c r="A2020" s="2" t="n">
-        <v>44193</v>
-      </c>
-      <c r="B2020" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="C2020" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="D2020" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="E2020" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="F2020" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="G2020" t="n">
-        <v>6775700</v>
-      </c>
-    </row>
-    <row r="2021">
-      <c r="A2021" s="2" t="n">
-        <v>44194</v>
-      </c>
-      <c r="B2021" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="C2021" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="D2021" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="E2021" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="F2021" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="G2021" t="n">
-        <v>6260100</v>
-      </c>
-    </row>
-    <row r="2022">
-      <c r="A2022" s="2" t="n">
-        <v>44195</v>
-      </c>
-      <c r="B2022" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="C2022" t="n">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="D2022" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="E2022" t="n">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="F2022" t="n">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="G2022" t="n">
-        <v>4085700</v>
-      </c>
-    </row>
-    <row r="2023">
-      <c r="A2023" s="2" t="n">
-        <v>44196</v>
-      </c>
-      <c r="B2023" t="n">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="C2023" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="D2023" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="E2023" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="F2023" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="G2023" t="n">
-        <v>3935500</v>
-      </c>
-    </row>
-    <row r="2024">
-      <c r="A2024" s="2" t="n">
-        <v>44200</v>
-      </c>
-      <c r="B2024" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="C2024" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="D2024" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="E2024" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="F2024" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="G2024" t="n">
-        <v>3977400</v>
-      </c>
-    </row>
-    <row r="2025">
-      <c r="A2025" s="2" t="n">
-        <v>44201</v>
-      </c>
-      <c r="B2025" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="C2025" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="D2025" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="E2025" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="F2025" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="G2025" t="n">
-        <v>2679300</v>
-      </c>
-    </row>
-    <row r="2026">
-      <c r="A2026" s="2" t="n">
-        <v>44202</v>
-      </c>
-      <c r="B2026" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="C2026" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="D2026" t="n">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="E2026" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="F2026" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="G2026" t="n">
-        <v>4142700</v>
-      </c>
-    </row>
-    <row r="2027">
-      <c r="A2027" s="2" t="n">
-        <v>44203</v>
-      </c>
-      <c r="B2027" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="C2027" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="D2027" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="E2027" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="F2027" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="G2027" t="n">
-        <v>5395900</v>
-      </c>
-    </row>
-    <row r="2028">
-      <c r="A2028" s="2" t="n">
-        <v>44204</v>
-      </c>
-      <c r="B2028" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="C2028" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="D2028" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="E2028" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="F2028" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="G2028" t="n">
-        <v>6899500</v>
-      </c>
-    </row>
-    <row r="2029">
-      <c r="A2029" s="2" t="n">
-        <v>44207</v>
-      </c>
-      <c r="B2029" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="C2029" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="D2029" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="E2029" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="F2029" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="G2029" t="n">
-        <v>4926300</v>
-      </c>
-    </row>
-    <row r="2030">
-      <c r="A2030" s="2" t="n">
-        <v>44208</v>
-      </c>
-      <c r="B2030" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="C2030" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="D2030" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="E2030" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="F2030" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="G2030" t="n">
-        <v>4073200</v>
-      </c>
-    </row>
-    <row r="2031">
-      <c r="A2031" s="2" t="n">
-        <v>44209</v>
-      </c>
-      <c r="B2031" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="C2031" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2031" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="E2031" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="F2031" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="G2031" t="n">
-        <v>3644100</v>
-      </c>
-    </row>
-    <row r="2032">
-      <c r="A2032" s="2" t="n">
-        <v>44210</v>
-      </c>
-      <c r="B2032" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="C2032" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="D2032" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="E2032" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F2032" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="G2032" t="n">
-        <v>8530500</v>
-      </c>
-    </row>
-    <row r="2033">
-      <c r="A2033" s="2" t="n">
-        <v>44211</v>
-      </c>
-      <c r="B2033" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="C2033" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="D2033" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="E2033" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="F2033" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="G2033" t="n">
-        <v>3055300</v>
-      </c>
-    </row>
-    <row r="2034">
-      <c r="A2034" s="2" t="n">
-        <v>44215</v>
-      </c>
-      <c r="B2034" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="C2034" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="D2034" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="E2034" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="F2034" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="G2034" t="n">
-        <v>11016600</v>
-      </c>
-    </row>
-    <row r="2035">
-      <c r="A2035" s="2" t="n">
-        <v>44216</v>
-      </c>
-      <c r="B2035" t="n">
-        <v>9</v>
-      </c>
-      <c r="C2035" t="n">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="D2035" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="E2035" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="F2035" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="G2035" t="n">
-        <v>7941500</v>
-      </c>
-    </row>
-    <row r="2036">
-      <c r="A2036" s="2" t="n">
-        <v>44217</v>
-      </c>
-      <c r="B2036" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="C2036" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="D2036" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="E2036" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="F2036" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="G2036" t="n">
-        <v>7156600</v>
-      </c>
-    </row>
-    <row r="2037">
-      <c r="A2037" s="2" t="n">
-        <v>44218</v>
-      </c>
-      <c r="B2037" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="C2037" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="D2037" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="E2037" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="F2037" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="G2037" t="n">
-        <v>9519900</v>
-      </c>
-    </row>
-    <row r="2038">
-      <c r="A2038" s="2" t="n">
-        <v>44221</v>
-      </c>
-      <c r="B2038" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="C2038" t="n">
-        <v>10.32</v>
-      </c>
-      <c r="D2038" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="E2038" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="F2038" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="G2038" t="n">
-        <v>10821200</v>
-      </c>
-    </row>
-    <row r="2039">
-      <c r="A2039" s="2" t="n">
-        <v>44222</v>
-      </c>
-      <c r="B2039" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="C2039" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="D2039" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="E2039" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="F2039" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="G2039" t="n">
-        <v>7540000</v>
-      </c>
-    </row>
-    <row r="2040">
-      <c r="A2040" s="2" t="n">
-        <v>44223</v>
-      </c>
-      <c r="B2040" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="C2040" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="D2040" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="E2040" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="F2040" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="G2040" t="n">
-        <v>47906400</v>
-      </c>
-    </row>
-    <row r="2041">
-      <c r="A2041" s="2" t="n">
-        <v>44224</v>
-      </c>
-      <c r="B2041" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="C2041" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="D2041" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="E2041" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="F2041" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="G2041" t="n">
-        <v>16196700</v>
-      </c>
-    </row>
-    <row r="2042">
-      <c r="A2042" s="2" t="n">
-        <v>44225</v>
-      </c>
-      <c r="B2042" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="C2042" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="D2042" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="E2042" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="F2042" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="G2042" t="n">
-        <v>7684600</v>
-      </c>
-    </row>
-    <row r="2043">
-      <c r="A2043" s="2" t="n">
-        <v>44228</v>
-      </c>
-      <c r="B2043" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="C2043" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="D2043" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="E2043" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="F2043" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="G2043" t="n">
-        <v>6601500</v>
-      </c>
-    </row>
-    <row r="2044">
-      <c r="A2044" s="2" t="n">
-        <v>44229</v>
-      </c>
-      <c r="B2044" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="C2044" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="D2044" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="E2044" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="F2044" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="G2044" t="n">
-        <v>5636100</v>
-      </c>
-    </row>
-    <row r="2045">
-      <c r="A2045" s="2" t="n">
-        <v>44230</v>
-      </c>
-      <c r="B2045" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="C2045" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D2045" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="E2045" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="F2045" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="G2045" t="n">
-        <v>43527400</v>
-      </c>
-    </row>
-    <row r="2046">
-      <c r="A2046" s="2" t="n">
-        <v>44231</v>
-      </c>
-      <c r="B2046" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="C2046" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="D2046" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="E2046" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="F2046" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="G2046" t="n">
-        <v>12170400</v>
-      </c>
-    </row>
-    <row r="2047">
-      <c r="A2047" s="2" t="n">
-        <v>44232</v>
-      </c>
-      <c r="B2047" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="C2047" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="D2047" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="E2047" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="F2047" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="G2047" t="n">
-        <v>5603400</v>
-      </c>
-    </row>
-    <row r="2048">
-      <c r="A2048" s="2" t="n">
-        <v>44235</v>
-      </c>
-      <c r="B2048" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="C2048" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="D2048" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="E2048" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="F2048" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="G2048" t="n">
-        <v>6616600</v>
-      </c>
-    </row>
-    <row r="2049">
-      <c r="A2049" s="2" t="n">
-        <v>44236</v>
-      </c>
-      <c r="B2049" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="C2049" t="n">
-        <v>12.39</v>
-      </c>
-      <c r="D2049" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="E2049" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="F2049" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="G2049" t="n">
-        <v>8279700</v>
-      </c>
-    </row>
-    <row r="2050">
-      <c r="A2050" s="2" t="n">
-        <v>44237</v>
-      </c>
-      <c r="B2050" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="C2050" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D2050" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="E2050" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="F2050" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="G2050" t="n">
-        <v>5766600</v>
-      </c>
-    </row>
-    <row r="2051">
-      <c r="A2051" s="2" t="n">
-        <v>44238</v>
-      </c>
-      <c r="B2051" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C2051" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="D2051" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="E2051" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="F2051" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="G2051" t="n">
-        <v>4502300</v>
-      </c>
-    </row>
-    <row r="2052">
-      <c r="A2052" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="B2052" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="C2052" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="D2052" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="E2052" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="F2052" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="G2052" t="n">
-        <v>1326121</v>
+        <v>3773942</v>
       </c>
     </row>
   </sheetData>

--- a/data/KODK.xlsx
+++ b/data/KODK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1884"/>
+  <dimension ref="A1:G1901"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43784,6 +43784,397 @@
         <v>3773942</v>
       </c>
     </row>
+    <row r="1885">
+      <c r="A1885" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="B1885" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C1885" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="D1885" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="E1885" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="F1885" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="G1885" t="n">
+        <v>10307800</v>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B1886" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="C1886" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="D1886" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1886" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="F1886" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="G1886" t="n">
+        <v>4361700</v>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="B1887" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="C1887" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D1887" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E1887" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="F1887" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="G1887" t="n">
+        <v>3845700</v>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="B1888" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="C1888" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="D1888" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E1888" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="F1888" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="G1888" t="n">
+        <v>3704000</v>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" s="2" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B1889" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="C1889" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="D1889" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="E1889" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="F1889" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="G1889" t="n">
+        <v>2688100</v>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="B1890" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C1890" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="D1890" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="E1890" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="F1890" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="G1890" t="n">
+        <v>4239600</v>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" s="2" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B1891" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C1891" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D1891" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="E1891" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="F1891" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="G1891" t="n">
+        <v>5365700</v>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" s="2" t="n">
+        <v>44281</v>
+      </c>
+      <c r="B1892" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C1892" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="D1892" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="E1892" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="F1892" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="G1892" t="n">
+        <v>3385500</v>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="B1893" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="C1893" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D1893" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="E1893" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="F1893" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="G1893" t="n">
+        <v>2057700</v>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" s="2" t="n">
+        <v>44285</v>
+      </c>
+      <c r="B1894" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="C1894" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="D1894" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="E1894" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="F1894" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="G1894" t="n">
+        <v>2276600</v>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B1895" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="C1895" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="D1895" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E1895" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="F1895" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="G1895" t="n">
+        <v>2783500</v>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B1896" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1896" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D1896" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="E1896" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="F1896" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="G1896" t="n">
+        <v>4892500</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" s="2" t="n">
+        <v>44291</v>
+      </c>
+      <c r="B1897" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="C1897" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="D1897" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="E1897" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="F1897" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="G1897" t="n">
+        <v>2053200</v>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" s="2" t="n">
+        <v>44292</v>
+      </c>
+      <c r="B1898" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="C1898" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="D1898" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="E1898" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="F1898" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="G1898" t="n">
+        <v>1422900</v>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="B1899" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="C1899" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="D1899" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="E1899" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="F1899" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="G1899" t="n">
+        <v>1883700</v>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" s="2" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B1900" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="C1900" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="D1900" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="E1900" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="F1900" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="G1900" t="n">
+        <v>2121700</v>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" s="2" t="n">
+        <v>44295</v>
+      </c>
+      <c r="B1901" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C1901" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="D1901" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="E1901" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="F1901" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="G1901" t="n">
+        <v>1245762</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
